--- a/Code/Results/Cases/Case_0_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_line/pl_mw.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3214228317313967</v>
+        <v>0.3214228317319368</v>
       </c>
       <c r="D2">
-        <v>0.4755707391149713</v>
+        <v>0.4755707391147439</v>
       </c>
       <c r="E2">
-        <v>0.2994547644415704</v>
+        <v>0.2994547644415917</v>
       </c>
       <c r="F2">
-        <v>12.38798641026509</v>
+        <v>12.38798641026514</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4561028874526087</v>
+        <v>0.4561028874525448</v>
       </c>
       <c r="J2">
-        <v>27.96083124707917</v>
+        <v>27.96083124707911</v>
       </c>
       <c r="K2">
-        <v>0.1054419880570023</v>
+        <v>0.1054419880570414</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2454443503928587</v>
+        <v>0.2454443503935835</v>
       </c>
       <c r="D3">
-        <v>0.2952165573363601</v>
+        <v>0.2952165573363743</v>
       </c>
       <c r="E3">
-        <v>0.2315233309764082</v>
+        <v>0.2315233309764295</v>
       </c>
       <c r="F3">
-        <v>8.700004979227799</v>
+        <v>8.700004979227856</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3334435934289672</v>
+        <v>0.3334435934289601</v>
       </c>
       <c r="J3">
-        <v>22.13494414765387</v>
+        <v>22.13494414765398</v>
       </c>
       <c r="K3">
-        <v>0.08202908077725368</v>
+        <v>0.08202908077726789</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.210600722828346</v>
+        <v>0.2106007228282607</v>
       </c>
       <c r="D4">
-        <v>0.2262995502668588</v>
+        <v>0.2262995502673135</v>
       </c>
       <c r="E4">
-        <v>0.1999240777237787</v>
+        <v>0.1999240777237219</v>
       </c>
       <c r="F4">
-        <v>7.174553986635573</v>
+        <v>7.174553986635999</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2804298566550614</v>
+        <v>0.2804298566550756</v>
       </c>
       <c r="J4">
-        <v>19.29494015115154</v>
+        <v>19.29494015115188</v>
       </c>
       <c r="K4">
-        <v>0.0710545224804342</v>
+        <v>0.07105452248041999</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,13 +532,13 @@
         <v>0.1978892349198702</v>
       </c>
       <c r="D5">
-        <v>0.2033854574196852</v>
+        <v>0.203385457419671</v>
       </c>
       <c r="E5">
-        <v>0.1883215781601351</v>
+        <v>0.1883215781600995</v>
       </c>
       <c r="F5">
-        <v>6.645493269889784</v>
+        <v>6.64549326988984</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2616065849266533</v>
+        <v>0.261606584926632</v>
       </c>
       <c r="J5">
-        <v>18.23138720852239</v>
+        <v>18.23138720852251</v>
       </c>
       <c r="K5">
-        <v>0.0670112309138382</v>
+        <v>0.06701123091386307</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1958471264760391</v>
+        <v>0.1958471264763517</v>
       </c>
       <c r="D6">
         <v>0.1998176416208821</v>
       </c>
       <c r="E6">
-        <v>0.1864537903376942</v>
+        <v>0.1864537903376657</v>
       </c>
       <c r="F6">
-        <v>6.56191088811272</v>
+        <v>6.561910888112749</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2586088393414698</v>
+        <v>0.2586088393414983</v>
       </c>
       <c r="J6">
-        <v>18.059119831857</v>
+        <v>18.05911983185706</v>
       </c>
       <c r="K6">
-        <v>0.06635963773792497</v>
+        <v>0.0663596377379605</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2104243054684503</v>
+        <v>0.2104243054682797</v>
       </c>
       <c r="D7">
-        <v>0.2259732728005162</v>
+        <v>0.2259732728005446</v>
       </c>
       <c r="E7">
         <v>0.1997633305127309</v>
       </c>
       <c r="F7">
-        <v>7.167108821628574</v>
+        <v>7.167108821628489</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2801667034398889</v>
+        <v>0.2801667034398747</v>
       </c>
       <c r="J7">
-        <v>19.2802818918355</v>
+        <v>19.28028189183539</v>
       </c>
       <c r="K7">
-        <v>0.07099855532898047</v>
+        <v>0.07099855532895205</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,13 +643,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2911885175588793</v>
+        <v>0.2911885175586519</v>
       </c>
       <c r="D8">
-        <v>0.398922748451966</v>
+        <v>0.3989227484521223</v>
       </c>
       <c r="E8">
-        <v>0.2725761560263109</v>
+        <v>0.272576156026318</v>
       </c>
       <c r="F8">
         <v>10.8626328824248</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4061364598000949</v>
+        <v>0.4061364598001305</v>
       </c>
       <c r="J8">
-        <v>25.70173782640308</v>
+        <v>25.70173782640296</v>
       </c>
       <c r="K8">
-        <v>0.09620713695617056</v>
+        <v>0.09620713695613858</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2911885175588793</v>
+        <v>0.2911885175586519</v>
       </c>
       <c r="D9">
-        <v>0.398922748451966</v>
+        <v>0.3989227484521223</v>
       </c>
       <c r="E9">
-        <v>0.2725761560263109</v>
+        <v>0.272576156026318</v>
       </c>
       <c r="F9">
         <v>10.8626328824248</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4061364598000949</v>
+        <v>0.4061364598001305</v>
       </c>
       <c r="J9">
-        <v>25.70173782640308</v>
+        <v>25.70173782640296</v>
       </c>
       <c r="K9">
-        <v>0.09620713695617056</v>
+        <v>0.09620713695613858</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2911885175588793</v>
+        <v>0.2911885175586519</v>
       </c>
       <c r="D10">
-        <v>0.398922748451966</v>
+        <v>0.3989227484521223</v>
       </c>
       <c r="E10">
-        <v>0.2725761560263109</v>
+        <v>0.272576156026318</v>
       </c>
       <c r="F10">
         <v>10.8626328824248</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4061364598000949</v>
+        <v>0.4061364598001305</v>
       </c>
       <c r="J10">
-        <v>25.70173782640308</v>
+        <v>25.70173782640296</v>
       </c>
       <c r="K10">
-        <v>0.09620713695617056</v>
+        <v>0.09620713695613858</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2911885175588793</v>
+        <v>0.2911885175586519</v>
       </c>
       <c r="D11">
-        <v>0.398922748451966</v>
+        <v>0.3989227484521223</v>
       </c>
       <c r="E11">
-        <v>0.2725761560263109</v>
+        <v>0.272576156026318</v>
       </c>
       <c r="F11">
         <v>10.8626328824248</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4061364598000949</v>
+        <v>0.4061364598001305</v>
       </c>
       <c r="J11">
-        <v>25.70173782640308</v>
+        <v>25.70173782640296</v>
       </c>
       <c r="K11">
-        <v>0.09620713695617056</v>
+        <v>0.09620713695613858</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2911885175588793</v>
+        <v>0.2911885175586519</v>
       </c>
       <c r="D12">
-        <v>0.398922748451966</v>
+        <v>0.3989227484521223</v>
       </c>
       <c r="E12">
-        <v>0.2725761560263109</v>
+        <v>0.272576156026318</v>
       </c>
       <c r="F12">
         <v>10.8626328824248</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4061364598000949</v>
+        <v>0.4061364598001305</v>
       </c>
       <c r="J12">
-        <v>25.70173782640308</v>
+        <v>25.70173782640296</v>
       </c>
       <c r="K12">
-        <v>0.09620713695617056</v>
+        <v>0.09620713695613858</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,13 +833,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2911885175588793</v>
+        <v>0.2911885175586519</v>
       </c>
       <c r="D13">
-        <v>0.398922748451966</v>
+        <v>0.3989227484521223</v>
       </c>
       <c r="E13">
-        <v>0.2725761560263109</v>
+        <v>0.272576156026318</v>
       </c>
       <c r="F13">
         <v>10.8626328824248</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4061364598000949</v>
+        <v>0.4061364598001305</v>
       </c>
       <c r="J13">
-        <v>25.70173782640308</v>
+        <v>25.70173782640296</v>
       </c>
       <c r="K13">
-        <v>0.09620713695617056</v>
+        <v>0.09620713695613858</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2911885175588793</v>
+        <v>0.2911885175586519</v>
       </c>
       <c r="D14">
-        <v>0.398922748451966</v>
+        <v>0.3989227484521223</v>
       </c>
       <c r="E14">
-        <v>0.2725761560263109</v>
+        <v>0.272576156026318</v>
       </c>
       <c r="F14">
         <v>10.8626328824248</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4061364598000949</v>
+        <v>0.4061364598001305</v>
       </c>
       <c r="J14">
-        <v>25.70173782640308</v>
+        <v>25.70173782640296</v>
       </c>
       <c r="K14">
-        <v>0.09620713695617056</v>
+        <v>0.09620713695613858</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2911885175588793</v>
+        <v>0.2911885175586519</v>
       </c>
       <c r="D15">
-        <v>0.398922748451966</v>
+        <v>0.3989227484521223</v>
       </c>
       <c r="E15">
-        <v>0.2725761560263109</v>
+        <v>0.272576156026318</v>
       </c>
       <c r="F15">
         <v>10.8626328824248</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4061364598000949</v>
+        <v>0.4061364598001305</v>
       </c>
       <c r="J15">
-        <v>25.70173782640308</v>
+        <v>25.70173782640296</v>
       </c>
       <c r="K15">
-        <v>0.09620713695617056</v>
+        <v>0.09620713695613858</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2911885175588793</v>
+        <v>0.2911885175586519</v>
       </c>
       <c r="D16">
-        <v>0.398922748451966</v>
+        <v>0.3989227484521223</v>
       </c>
       <c r="E16">
-        <v>0.2725761560263109</v>
+        <v>0.272576156026318</v>
       </c>
       <c r="F16">
         <v>10.8626328824248</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4061364598000949</v>
+        <v>0.4061364598001305</v>
       </c>
       <c r="J16">
-        <v>25.70173782640308</v>
+        <v>25.70173782640296</v>
       </c>
       <c r="K16">
-        <v>0.09620713695617056</v>
+        <v>0.09620713695613858</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2911885175588793</v>
+        <v>0.2911885175586519</v>
       </c>
       <c r="D17">
-        <v>0.398922748451966</v>
+        <v>0.3989227484521223</v>
       </c>
       <c r="E17">
-        <v>0.2725761560263109</v>
+        <v>0.272576156026318</v>
       </c>
       <c r="F17">
         <v>10.8626328824248</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4061364598000949</v>
+        <v>0.4061364598001305</v>
       </c>
       <c r="J17">
-        <v>25.70173782640308</v>
+        <v>25.70173782640296</v>
       </c>
       <c r="K17">
-        <v>0.09620713695617056</v>
+        <v>0.09620713695613858</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2911885175588793</v>
+        <v>0.2911885175586519</v>
       </c>
       <c r="D18">
-        <v>0.398922748451966</v>
+        <v>0.3989227484521223</v>
       </c>
       <c r="E18">
-        <v>0.2725761560263109</v>
+        <v>0.272576156026318</v>
       </c>
       <c r="F18">
         <v>10.8626328824248</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4061364598000949</v>
+        <v>0.4061364598001305</v>
       </c>
       <c r="J18">
-        <v>25.70173782640308</v>
+        <v>25.70173782640296</v>
       </c>
       <c r="K18">
-        <v>0.09620713695617056</v>
+        <v>0.09620713695613858</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2911885175588793</v>
+        <v>0.2911885175586519</v>
       </c>
       <c r="D19">
-        <v>0.398922748451966</v>
+        <v>0.3989227484521223</v>
       </c>
       <c r="E19">
-        <v>0.2725761560263109</v>
+        <v>0.272576156026318</v>
       </c>
       <c r="F19">
         <v>10.8626328824248</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4061364598000949</v>
+        <v>0.4061364598001305</v>
       </c>
       <c r="J19">
-        <v>25.70173782640308</v>
+        <v>25.70173782640296</v>
       </c>
       <c r="K19">
-        <v>0.09620713695617056</v>
+        <v>0.09620713695613858</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2911885175588793</v>
+        <v>0.2911885175586519</v>
       </c>
       <c r="D20">
-        <v>0.398922748451966</v>
+        <v>0.3989227484521223</v>
       </c>
       <c r="E20">
-        <v>0.2725761560263109</v>
+        <v>0.272576156026318</v>
       </c>
       <c r="F20">
         <v>10.8626328824248</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4061364598000949</v>
+        <v>0.4061364598001305</v>
       </c>
       <c r="J20">
-        <v>25.70173782640308</v>
+        <v>25.70173782640296</v>
       </c>
       <c r="K20">
-        <v>0.09620713695617056</v>
+        <v>0.09620713695613858</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2911885175588793</v>
+        <v>0.2911885175586519</v>
       </c>
       <c r="D21">
-        <v>0.398922748451966</v>
+        <v>0.3989227484521223</v>
       </c>
       <c r="E21">
-        <v>0.2725761560263109</v>
+        <v>0.272576156026318</v>
       </c>
       <c r="F21">
         <v>10.8626328824248</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4061364598000949</v>
+        <v>0.4061364598001305</v>
       </c>
       <c r="J21">
-        <v>25.70173782640308</v>
+        <v>25.70173782640296</v>
       </c>
       <c r="K21">
-        <v>0.09620713695617056</v>
+        <v>0.09620713695613858</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2911885175588793</v>
+        <v>0.2911885175586519</v>
       </c>
       <c r="D22">
-        <v>0.398922748451966</v>
+        <v>0.3989227484521223</v>
       </c>
       <c r="E22">
-        <v>0.2725761560263109</v>
+        <v>0.272576156026318</v>
       </c>
       <c r="F22">
         <v>10.8626328824248</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4061364598000949</v>
+        <v>0.4061364598001305</v>
       </c>
       <c r="J22">
-        <v>25.70173782640308</v>
+        <v>25.70173782640296</v>
       </c>
       <c r="K22">
-        <v>0.09620713695617056</v>
+        <v>0.09620713695613858</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2911885175588793</v>
+        <v>0.2911885175586519</v>
       </c>
       <c r="D23">
-        <v>0.398922748451966</v>
+        <v>0.3989227484521223</v>
       </c>
       <c r="E23">
-        <v>0.2725761560263109</v>
+        <v>0.272576156026318</v>
       </c>
       <c r="F23">
         <v>10.8626328824248</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4061364598000949</v>
+        <v>0.4061364598001305</v>
       </c>
       <c r="J23">
-        <v>25.70173782640308</v>
+        <v>25.70173782640296</v>
       </c>
       <c r="K23">
-        <v>0.09620713695617056</v>
+        <v>0.09620713695613858</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2911885175588793</v>
+        <v>0.2911885175586519</v>
       </c>
       <c r="D24">
-        <v>0.398922748451966</v>
+        <v>0.3989227484521223</v>
       </c>
       <c r="E24">
-        <v>0.2725761560263109</v>
+        <v>0.272576156026318</v>
       </c>
       <c r="F24">
         <v>10.8626328824248</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4061364598000949</v>
+        <v>0.4061364598001305</v>
       </c>
       <c r="J24">
-        <v>25.70173782640308</v>
+        <v>25.70173782640296</v>
       </c>
       <c r="K24">
-        <v>0.09620713695617056</v>
+        <v>0.09620713695613858</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2911885175588793</v>
+        <v>0.2911885175586519</v>
       </c>
       <c r="D25">
-        <v>0.398922748451966</v>
+        <v>0.3989227484521223</v>
       </c>
       <c r="E25">
-        <v>0.2725761560263109</v>
+        <v>0.272576156026318</v>
       </c>
       <c r="F25">
         <v>10.8626328824248</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4061364598000949</v>
+        <v>0.4061364598001305</v>
       </c>
       <c r="J25">
-        <v>25.70173782640308</v>
+        <v>25.70173782640296</v>
       </c>
       <c r="K25">
-        <v>0.09620713695617056</v>
+        <v>0.09620713695613858</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_line/pl_mw.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3214228317319368</v>
+        <v>0.3214228317313967</v>
       </c>
       <c r="D2">
-        <v>0.4755707391147439</v>
+        <v>0.4755707391149713</v>
       </c>
       <c r="E2">
-        <v>0.2994547644415917</v>
+        <v>0.2994547644415704</v>
       </c>
       <c r="F2">
-        <v>12.38798641026514</v>
+        <v>12.38798641026509</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4561028874525448</v>
+        <v>0.4561028874526087</v>
       </c>
       <c r="J2">
-        <v>27.96083124707911</v>
+        <v>27.96083124707917</v>
       </c>
       <c r="K2">
-        <v>0.1054419880570414</v>
+        <v>0.1054419880570023</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2454443503935835</v>
+        <v>0.2454443503928587</v>
       </c>
       <c r="D3">
-        <v>0.2952165573363743</v>
+        <v>0.2952165573363601</v>
       </c>
       <c r="E3">
-        <v>0.2315233309764295</v>
+        <v>0.2315233309764082</v>
       </c>
       <c r="F3">
-        <v>8.700004979227856</v>
+        <v>8.700004979227799</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3334435934289601</v>
+        <v>0.3334435934289672</v>
       </c>
       <c r="J3">
-        <v>22.13494414765398</v>
+        <v>22.13494414765387</v>
       </c>
       <c r="K3">
-        <v>0.08202908077726789</v>
+        <v>0.08202908077725368</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2106007228282607</v>
+        <v>0.210600722828346</v>
       </c>
       <c r="D4">
-        <v>0.2262995502673135</v>
+        <v>0.2262995502668588</v>
       </c>
       <c r="E4">
-        <v>0.1999240777237219</v>
+        <v>0.1999240777237787</v>
       </c>
       <c r="F4">
-        <v>7.174553986635999</v>
+        <v>7.174553986635573</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2804298566550756</v>
+        <v>0.2804298566550614</v>
       </c>
       <c r="J4">
-        <v>19.29494015115188</v>
+        <v>19.29494015115154</v>
       </c>
       <c r="K4">
-        <v>0.07105452248041999</v>
+        <v>0.0710545224804342</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,13 +532,13 @@
         <v>0.1978892349198702</v>
       </c>
       <c r="D5">
-        <v>0.203385457419671</v>
+        <v>0.2033854574196852</v>
       </c>
       <c r="E5">
-        <v>0.1883215781600995</v>
+        <v>0.1883215781601351</v>
       </c>
       <c r="F5">
-        <v>6.64549326988984</v>
+        <v>6.645493269889784</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.261606584926632</v>
+        <v>0.2616065849266533</v>
       </c>
       <c r="J5">
-        <v>18.23138720852251</v>
+        <v>18.23138720852239</v>
       </c>
       <c r="K5">
-        <v>0.06701123091386307</v>
+        <v>0.0670112309138382</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1958471264763517</v>
+        <v>0.1958471264760391</v>
       </c>
       <c r="D6">
         <v>0.1998176416208821</v>
       </c>
       <c r="E6">
-        <v>0.1864537903376657</v>
+        <v>0.1864537903376942</v>
       </c>
       <c r="F6">
-        <v>6.561910888112749</v>
+        <v>6.56191088811272</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2586088393414983</v>
+        <v>0.2586088393414698</v>
       </c>
       <c r="J6">
-        <v>18.05911983185706</v>
+        <v>18.059119831857</v>
       </c>
       <c r="K6">
-        <v>0.0663596377379605</v>
+        <v>0.06635963773792497</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2104243054682797</v>
+        <v>0.2104243054684503</v>
       </c>
       <c r="D7">
-        <v>0.2259732728005446</v>
+        <v>0.2259732728005162</v>
       </c>
       <c r="E7">
         <v>0.1997633305127309</v>
       </c>
       <c r="F7">
-        <v>7.167108821628489</v>
+        <v>7.167108821628574</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2801667034398747</v>
+        <v>0.2801667034398889</v>
       </c>
       <c r="J7">
-        <v>19.28028189183539</v>
+        <v>19.2802818918355</v>
       </c>
       <c r="K7">
-        <v>0.07099855532895205</v>
+        <v>0.07099855532898047</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,13 +643,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2911885175586519</v>
+        <v>0.2911885175588793</v>
       </c>
       <c r="D8">
-        <v>0.3989227484521223</v>
+        <v>0.398922748451966</v>
       </c>
       <c r="E8">
-        <v>0.272576156026318</v>
+        <v>0.2725761560263109</v>
       </c>
       <c r="F8">
         <v>10.8626328824248</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4061364598001305</v>
+        <v>0.4061364598000949</v>
       </c>
       <c r="J8">
-        <v>25.70173782640296</v>
+        <v>25.70173782640308</v>
       </c>
       <c r="K8">
-        <v>0.09620713695613858</v>
+        <v>0.09620713695617056</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2911885175586519</v>
+        <v>0.2911885175588793</v>
       </c>
       <c r="D9">
-        <v>0.3989227484521223</v>
+        <v>0.398922748451966</v>
       </c>
       <c r="E9">
-        <v>0.272576156026318</v>
+        <v>0.2725761560263109</v>
       </c>
       <c r="F9">
         <v>10.8626328824248</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4061364598001305</v>
+        <v>0.4061364598000949</v>
       </c>
       <c r="J9">
-        <v>25.70173782640296</v>
+        <v>25.70173782640308</v>
       </c>
       <c r="K9">
-        <v>0.09620713695613858</v>
+        <v>0.09620713695617056</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2911885175586519</v>
+        <v>0.2911885175588793</v>
       </c>
       <c r="D10">
-        <v>0.3989227484521223</v>
+        <v>0.398922748451966</v>
       </c>
       <c r="E10">
-        <v>0.272576156026318</v>
+        <v>0.2725761560263109</v>
       </c>
       <c r="F10">
         <v>10.8626328824248</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4061364598001305</v>
+        <v>0.4061364598000949</v>
       </c>
       <c r="J10">
-        <v>25.70173782640296</v>
+        <v>25.70173782640308</v>
       </c>
       <c r="K10">
-        <v>0.09620713695613858</v>
+        <v>0.09620713695617056</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2911885175586519</v>
+        <v>0.2911885175588793</v>
       </c>
       <c r="D11">
-        <v>0.3989227484521223</v>
+        <v>0.398922748451966</v>
       </c>
       <c r="E11">
-        <v>0.272576156026318</v>
+        <v>0.2725761560263109</v>
       </c>
       <c r="F11">
         <v>10.8626328824248</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4061364598001305</v>
+        <v>0.4061364598000949</v>
       </c>
       <c r="J11">
-        <v>25.70173782640296</v>
+        <v>25.70173782640308</v>
       </c>
       <c r="K11">
-        <v>0.09620713695613858</v>
+        <v>0.09620713695617056</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2911885175586519</v>
+        <v>0.2911885175588793</v>
       </c>
       <c r="D12">
-        <v>0.3989227484521223</v>
+        <v>0.398922748451966</v>
       </c>
       <c r="E12">
-        <v>0.272576156026318</v>
+        <v>0.2725761560263109</v>
       </c>
       <c r="F12">
         <v>10.8626328824248</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4061364598001305</v>
+        <v>0.4061364598000949</v>
       </c>
       <c r="J12">
-        <v>25.70173782640296</v>
+        <v>25.70173782640308</v>
       </c>
       <c r="K12">
-        <v>0.09620713695613858</v>
+        <v>0.09620713695617056</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,13 +833,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2911885175586519</v>
+        <v>0.2911885175588793</v>
       </c>
       <c r="D13">
-        <v>0.3989227484521223</v>
+        <v>0.398922748451966</v>
       </c>
       <c r="E13">
-        <v>0.272576156026318</v>
+        <v>0.2725761560263109</v>
       </c>
       <c r="F13">
         <v>10.8626328824248</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4061364598001305</v>
+        <v>0.4061364598000949</v>
       </c>
       <c r="J13">
-        <v>25.70173782640296</v>
+        <v>25.70173782640308</v>
       </c>
       <c r="K13">
-        <v>0.09620713695613858</v>
+        <v>0.09620713695617056</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2911885175586519</v>
+        <v>0.2911885175588793</v>
       </c>
       <c r="D14">
-        <v>0.3989227484521223</v>
+        <v>0.398922748451966</v>
       </c>
       <c r="E14">
-        <v>0.272576156026318</v>
+        <v>0.2725761560263109</v>
       </c>
       <c r="F14">
         <v>10.8626328824248</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4061364598001305</v>
+        <v>0.4061364598000949</v>
       </c>
       <c r="J14">
-        <v>25.70173782640296</v>
+        <v>25.70173782640308</v>
       </c>
       <c r="K14">
-        <v>0.09620713695613858</v>
+        <v>0.09620713695617056</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2911885175586519</v>
+        <v>0.2911885175588793</v>
       </c>
       <c r="D15">
-        <v>0.3989227484521223</v>
+        <v>0.398922748451966</v>
       </c>
       <c r="E15">
-        <v>0.272576156026318</v>
+        <v>0.2725761560263109</v>
       </c>
       <c r="F15">
         <v>10.8626328824248</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4061364598001305</v>
+        <v>0.4061364598000949</v>
       </c>
       <c r="J15">
-        <v>25.70173782640296</v>
+        <v>25.70173782640308</v>
       </c>
       <c r="K15">
-        <v>0.09620713695613858</v>
+        <v>0.09620713695617056</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2911885175586519</v>
+        <v>0.2911885175588793</v>
       </c>
       <c r="D16">
-        <v>0.3989227484521223</v>
+        <v>0.398922748451966</v>
       </c>
       <c r="E16">
-        <v>0.272576156026318</v>
+        <v>0.2725761560263109</v>
       </c>
       <c r="F16">
         <v>10.8626328824248</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4061364598001305</v>
+        <v>0.4061364598000949</v>
       </c>
       <c r="J16">
-        <v>25.70173782640296</v>
+        <v>25.70173782640308</v>
       </c>
       <c r="K16">
-        <v>0.09620713695613858</v>
+        <v>0.09620713695617056</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2911885175586519</v>
+        <v>0.2911885175588793</v>
       </c>
       <c r="D17">
-        <v>0.3989227484521223</v>
+        <v>0.398922748451966</v>
       </c>
       <c r="E17">
-        <v>0.272576156026318</v>
+        <v>0.2725761560263109</v>
       </c>
       <c r="F17">
         <v>10.8626328824248</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4061364598001305</v>
+        <v>0.4061364598000949</v>
       </c>
       <c r="J17">
-        <v>25.70173782640296</v>
+        <v>25.70173782640308</v>
       </c>
       <c r="K17">
-        <v>0.09620713695613858</v>
+        <v>0.09620713695617056</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2911885175586519</v>
+        <v>0.2911885175588793</v>
       </c>
       <c r="D18">
-        <v>0.3989227484521223</v>
+        <v>0.398922748451966</v>
       </c>
       <c r="E18">
-        <v>0.272576156026318</v>
+        <v>0.2725761560263109</v>
       </c>
       <c r="F18">
         <v>10.8626328824248</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4061364598001305</v>
+        <v>0.4061364598000949</v>
       </c>
       <c r="J18">
-        <v>25.70173782640296</v>
+        <v>25.70173782640308</v>
       </c>
       <c r="K18">
-        <v>0.09620713695613858</v>
+        <v>0.09620713695617056</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2911885175586519</v>
+        <v>0.2911885175588793</v>
       </c>
       <c r="D19">
-        <v>0.3989227484521223</v>
+        <v>0.398922748451966</v>
       </c>
       <c r="E19">
-        <v>0.272576156026318</v>
+        <v>0.2725761560263109</v>
       </c>
       <c r="F19">
         <v>10.8626328824248</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4061364598001305</v>
+        <v>0.4061364598000949</v>
       </c>
       <c r="J19">
-        <v>25.70173782640296</v>
+        <v>25.70173782640308</v>
       </c>
       <c r="K19">
-        <v>0.09620713695613858</v>
+        <v>0.09620713695617056</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2911885175586519</v>
+        <v>0.2911885175588793</v>
       </c>
       <c r="D20">
-        <v>0.3989227484521223</v>
+        <v>0.398922748451966</v>
       </c>
       <c r="E20">
-        <v>0.272576156026318</v>
+        <v>0.2725761560263109</v>
       </c>
       <c r="F20">
         <v>10.8626328824248</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4061364598001305</v>
+        <v>0.4061364598000949</v>
       </c>
       <c r="J20">
-        <v>25.70173782640296</v>
+        <v>25.70173782640308</v>
       </c>
       <c r="K20">
-        <v>0.09620713695613858</v>
+        <v>0.09620713695617056</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2911885175586519</v>
+        <v>0.2911885175588793</v>
       </c>
       <c r="D21">
-        <v>0.3989227484521223</v>
+        <v>0.398922748451966</v>
       </c>
       <c r="E21">
-        <v>0.272576156026318</v>
+        <v>0.2725761560263109</v>
       </c>
       <c r="F21">
         <v>10.8626328824248</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4061364598001305</v>
+        <v>0.4061364598000949</v>
       </c>
       <c r="J21">
-        <v>25.70173782640296</v>
+        <v>25.70173782640308</v>
       </c>
       <c r="K21">
-        <v>0.09620713695613858</v>
+        <v>0.09620713695617056</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2911885175586519</v>
+        <v>0.2911885175588793</v>
       </c>
       <c r="D22">
-        <v>0.3989227484521223</v>
+        <v>0.398922748451966</v>
       </c>
       <c r="E22">
-        <v>0.272576156026318</v>
+        <v>0.2725761560263109</v>
       </c>
       <c r="F22">
         <v>10.8626328824248</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4061364598001305</v>
+        <v>0.4061364598000949</v>
       </c>
       <c r="J22">
-        <v>25.70173782640296</v>
+        <v>25.70173782640308</v>
       </c>
       <c r="K22">
-        <v>0.09620713695613858</v>
+        <v>0.09620713695617056</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2911885175586519</v>
+        <v>0.2911885175588793</v>
       </c>
       <c r="D23">
-        <v>0.3989227484521223</v>
+        <v>0.398922748451966</v>
       </c>
       <c r="E23">
-        <v>0.272576156026318</v>
+        <v>0.2725761560263109</v>
       </c>
       <c r="F23">
         <v>10.8626328824248</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4061364598001305</v>
+        <v>0.4061364598000949</v>
       </c>
       <c r="J23">
-        <v>25.70173782640296</v>
+        <v>25.70173782640308</v>
       </c>
       <c r="K23">
-        <v>0.09620713695613858</v>
+        <v>0.09620713695617056</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2911885175586519</v>
+        <v>0.2911885175588793</v>
       </c>
       <c r="D24">
-        <v>0.3989227484521223</v>
+        <v>0.398922748451966</v>
       </c>
       <c r="E24">
-        <v>0.272576156026318</v>
+        <v>0.2725761560263109</v>
       </c>
       <c r="F24">
         <v>10.8626328824248</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4061364598001305</v>
+        <v>0.4061364598000949</v>
       </c>
       <c r="J24">
-        <v>25.70173782640296</v>
+        <v>25.70173782640308</v>
       </c>
       <c r="K24">
-        <v>0.09620713695613858</v>
+        <v>0.09620713695617056</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2911885175586519</v>
+        <v>0.2911885175588793</v>
       </c>
       <c r="D25">
-        <v>0.3989227484521223</v>
+        <v>0.398922748451966</v>
       </c>
       <c r="E25">
-        <v>0.272576156026318</v>
+        <v>0.2725761560263109</v>
       </c>
       <c r="F25">
         <v>10.8626328824248</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4061364598001305</v>
+        <v>0.4061364598000949</v>
       </c>
       <c r="J25">
-        <v>25.70173782640296</v>
+        <v>25.70173782640308</v>
       </c>
       <c r="K25">
-        <v>0.09620713695613858</v>
+        <v>0.09620713695617056</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3214228317313967</v>
+        <v>0.3147199885614071</v>
       </c>
       <c r="D2">
-        <v>0.4755707391149713</v>
+        <v>0.4453913342129852</v>
       </c>
       <c r="E2">
-        <v>0.2994547644415704</v>
+        <v>0.2937206865783537</v>
       </c>
       <c r="F2">
-        <v>12.38798641026509</v>
+        <v>11.94382468096327</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0005261211931160508</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4561028874526087</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>27.96083124707917</v>
+        <v>0.4434631904757467</v>
       </c>
       <c r="K2">
-        <v>0.1054419880570023</v>
+        <v>27.48762573634184</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1034965775374417</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2454443503928587</v>
+        <v>0.2417213091656976</v>
       </c>
       <c r="D3">
-        <v>0.2952165573363601</v>
+        <v>0.2784474836378905</v>
       </c>
       <c r="E3">
-        <v>0.2315233309764082</v>
+        <v>0.2282600256582157</v>
       </c>
       <c r="F3">
-        <v>8.700004979227799</v>
+        <v>8.470691169609609</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0005935430525232869</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3334435934289672</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>22.13494414765387</v>
+        <v>0.3268258443516388</v>
       </c>
       <c r="K3">
-        <v>0.08202908077725368</v>
+        <v>21.85812859596638</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.08090018758389661</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.210600722828346</v>
+        <v>0.2077493072964955</v>
       </c>
       <c r="D4">
-        <v>0.2262995502668588</v>
+        <v>0.2139604430540203</v>
       </c>
       <c r="E4">
-        <v>0.1999240777237787</v>
+        <v>0.1973708514560855</v>
       </c>
       <c r="F4">
-        <v>7.174553986635573</v>
+        <v>7.013272595408665</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0006274952659668175</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2804298566550614</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>19.29494015115154</v>
+        <v>0.2756133441684128</v>
       </c>
       <c r="K4">
-        <v>0.0710545224804342</v>
+        <v>19.07991073777072</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.0701583542052866</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1978892349198702</v>
+        <v>0.195310847699119</v>
       </c>
       <c r="D5">
-        <v>0.2033854574196852</v>
+        <v>0.1925209948807947</v>
       </c>
       <c r="E5">
-        <v>0.1883215781601351</v>
+        <v>0.1859889326046158</v>
       </c>
       <c r="F5">
-        <v>6.645493269889784</v>
+        <v>6.506403311986531</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006404331334603452</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2616065849266533</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>18.23138720852239</v>
+        <v>0.2573614792156178</v>
       </c>
       <c r="K5">
-        <v>0.0670112309138382</v>
+        <v>18.03644276171769</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.06618709193600836</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1958471264760391</v>
+        <v>0.1933107397134961</v>
       </c>
       <c r="D6">
-        <v>0.1998176416208821</v>
+        <v>0.1891846035585871</v>
       </c>
       <c r="E6">
-        <v>0.1864537903376942</v>
+        <v>0.1841549852697213</v>
       </c>
       <c r="F6">
-        <v>6.56191088811272</v>
+        <v>6.426280946094067</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.000642541662576357</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2586088393414698</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>18.059119831857</v>
+        <v>0.254452022298274</v>
       </c>
       <c r="K6">
-        <v>0.06635963773792497</v>
+        <v>17.8673032695209</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.06554653628717233</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2104243054684503</v>
+        <v>0.2075768229960175</v>
       </c>
       <c r="D7">
-        <v>0.2259732728005162</v>
+        <v>0.2136550641421167</v>
       </c>
       <c r="E7">
-        <v>0.1997633305127309</v>
+        <v>0.1972132887937335</v>
       </c>
       <c r="F7">
-        <v>7.167108821628574</v>
+        <v>7.006143625035151</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0006276726822684807</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2801667034398889</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>19.2802818918355</v>
+        <v>0.2753583933090908</v>
       </c>
       <c r="K7">
-        <v>0.07099855532898047</v>
+        <v>19.06553893163186</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.07010342794150404</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2911885175588793</v>
+        <v>0.2859191931127327</v>
       </c>
       <c r="D8">
-        <v>0.398922748451966</v>
+        <v>0.3749676501854111</v>
       </c>
       <c r="E8">
-        <v>0.2725761560263109</v>
+        <v>0.2680370820147147</v>
       </c>
       <c r="F8">
-        <v>10.8626328824248</v>
+        <v>10.51948562461894</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0005519288320040988</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4061364598000949</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>25.70173782640308</v>
+        <v>0.3963765564939337</v>
       </c>
       <c r="K8">
-        <v>0.09620713695617056</v>
+        <v>25.3210438330255</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.0946576621290447</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2911885175588793</v>
+        <v>0.2859191931127327</v>
       </c>
       <c r="D9">
-        <v>0.398922748451966</v>
+        <v>0.3749676501854111</v>
       </c>
       <c r="E9">
-        <v>0.2725761560263109</v>
+        <v>0.2680370820147147</v>
       </c>
       <c r="F9">
-        <v>10.8626328824248</v>
+        <v>10.51948562461894</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005519288320040988</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4061364598000949</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>25.70173782640308</v>
+        <v>0.3963765564939337</v>
       </c>
       <c r="K9">
-        <v>0.09620713695617056</v>
+        <v>25.3210438330255</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.0946576621290447</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2911885175588793</v>
+        <v>0.2859191931127327</v>
       </c>
       <c r="D10">
-        <v>0.398922748451966</v>
+        <v>0.3749676501854111</v>
       </c>
       <c r="E10">
-        <v>0.2725761560263109</v>
+        <v>0.2680370820147147</v>
       </c>
       <c r="F10">
-        <v>10.8626328824248</v>
+        <v>10.51948562461894</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0005519288320040988</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4061364598000949</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>25.70173782640308</v>
+        <v>0.3963765564939337</v>
       </c>
       <c r="K10">
-        <v>0.09620713695617056</v>
+        <v>25.3210438330255</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.0946576621290447</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2911885175588793</v>
+        <v>0.2859191931127327</v>
       </c>
       <c r="D11">
-        <v>0.398922748451966</v>
+        <v>0.3749676501854111</v>
       </c>
       <c r="E11">
-        <v>0.2725761560263109</v>
+        <v>0.2680370820147147</v>
       </c>
       <c r="F11">
-        <v>10.8626328824248</v>
+        <v>10.51948562461894</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005519288320040988</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4061364598000949</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>25.70173782640308</v>
+        <v>0.3963765564939337</v>
       </c>
       <c r="K11">
-        <v>0.09620713695617056</v>
+        <v>25.3210438330255</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.0946576621290447</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2911885175588793</v>
+        <v>0.2859191931127327</v>
       </c>
       <c r="D12">
-        <v>0.398922748451966</v>
+        <v>0.3749676501854111</v>
       </c>
       <c r="E12">
-        <v>0.2725761560263109</v>
+        <v>0.2680370820147147</v>
       </c>
       <c r="F12">
-        <v>10.8626328824248</v>
+        <v>10.51948562461894</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005519288320040988</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4061364598000949</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>25.70173782640308</v>
+        <v>0.3963765564939337</v>
       </c>
       <c r="K12">
-        <v>0.09620713695617056</v>
+        <v>25.3210438330255</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.0946576621290447</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2911885175588793</v>
+        <v>0.2859191931127327</v>
       </c>
       <c r="D13">
-        <v>0.398922748451966</v>
+        <v>0.3749676501854111</v>
       </c>
       <c r="E13">
-        <v>0.2725761560263109</v>
+        <v>0.2680370820147147</v>
       </c>
       <c r="F13">
-        <v>10.8626328824248</v>
+        <v>10.51948562461894</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0005519288320040988</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4061364598000949</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>25.70173782640308</v>
+        <v>0.3963765564939337</v>
       </c>
       <c r="K13">
-        <v>0.09620713695617056</v>
+        <v>25.3210438330255</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.0946576621290447</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2911885175588793</v>
+        <v>0.2859191931127327</v>
       </c>
       <c r="D14">
-        <v>0.398922748451966</v>
+        <v>0.3749676501854111</v>
       </c>
       <c r="E14">
-        <v>0.2725761560263109</v>
+        <v>0.2680370820147147</v>
       </c>
       <c r="F14">
-        <v>10.8626328824248</v>
+        <v>10.51948562461894</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0005519288320040988</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4061364598000949</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>25.70173782640308</v>
+        <v>0.3963765564939337</v>
       </c>
       <c r="K14">
-        <v>0.09620713695617056</v>
+        <v>25.3210438330255</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.0946576621290447</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2911885175588793</v>
+        <v>0.2859191931127327</v>
       </c>
       <c r="D15">
-        <v>0.398922748451966</v>
+        <v>0.3749676501854111</v>
       </c>
       <c r="E15">
-        <v>0.2725761560263109</v>
+        <v>0.2680370820147147</v>
       </c>
       <c r="F15">
-        <v>10.8626328824248</v>
+        <v>10.51948562461894</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0005519288320040988</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4061364598000949</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>25.70173782640308</v>
+        <v>0.3963765564939337</v>
       </c>
       <c r="K15">
-        <v>0.09620713695617056</v>
+        <v>25.3210438330255</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.0946576621290447</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2911885175588793</v>
+        <v>0.2859191931127327</v>
       </c>
       <c r="D16">
-        <v>0.398922748451966</v>
+        <v>0.3749676501854111</v>
       </c>
       <c r="E16">
-        <v>0.2725761560263109</v>
+        <v>0.2680370820147147</v>
       </c>
       <c r="F16">
-        <v>10.8626328824248</v>
+        <v>10.51948562461894</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0005519288320040988</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4061364598000949</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>25.70173782640308</v>
+        <v>0.3963765564939337</v>
       </c>
       <c r="K16">
-        <v>0.09620713695617056</v>
+        <v>25.3210438330255</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.0946576621290447</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2911885175588793</v>
+        <v>0.2859191931127327</v>
       </c>
       <c r="D17">
-        <v>0.398922748451966</v>
+        <v>0.3749676501854111</v>
       </c>
       <c r="E17">
-        <v>0.2725761560263109</v>
+        <v>0.2680370820147147</v>
       </c>
       <c r="F17">
-        <v>10.8626328824248</v>
+        <v>10.51948562461894</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0005519288320040988</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4061364598000949</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>25.70173782640308</v>
+        <v>0.3963765564939337</v>
       </c>
       <c r="K17">
-        <v>0.09620713695617056</v>
+        <v>25.3210438330255</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.0946576621290447</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2911885175588793</v>
+        <v>0.2859191931127327</v>
       </c>
       <c r="D18">
-        <v>0.398922748451966</v>
+        <v>0.3749676501854111</v>
       </c>
       <c r="E18">
-        <v>0.2725761560263109</v>
+        <v>0.2680370820147147</v>
       </c>
       <c r="F18">
-        <v>10.8626328824248</v>
+        <v>10.51948562461894</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0005519288320040988</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4061364598000949</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>25.70173782640308</v>
+        <v>0.3963765564939337</v>
       </c>
       <c r="K18">
-        <v>0.09620713695617056</v>
+        <v>25.3210438330255</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.0946576621290447</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2911885175588793</v>
+        <v>0.2859191931127327</v>
       </c>
       <c r="D19">
-        <v>0.398922748451966</v>
+        <v>0.3749676501854111</v>
       </c>
       <c r="E19">
-        <v>0.2725761560263109</v>
+        <v>0.2680370820147147</v>
       </c>
       <c r="F19">
-        <v>10.8626328824248</v>
+        <v>10.51948562461894</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0005519288320040988</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4061364598000949</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>25.70173782640308</v>
+        <v>0.3963765564939337</v>
       </c>
       <c r="K19">
-        <v>0.09620713695617056</v>
+        <v>25.3210438330255</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.0946576621290447</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2911885175588793</v>
+        <v>0.2859191931127327</v>
       </c>
       <c r="D20">
-        <v>0.398922748451966</v>
+        <v>0.3749676501854111</v>
       </c>
       <c r="E20">
-        <v>0.2725761560263109</v>
+        <v>0.2680370820147147</v>
       </c>
       <c r="F20">
-        <v>10.8626328824248</v>
+        <v>10.51948562461894</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0005519288320040988</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4061364598000949</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>25.70173782640308</v>
+        <v>0.3963765564939337</v>
       </c>
       <c r="K20">
-        <v>0.09620713695617056</v>
+        <v>25.3210438330255</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.0946576621290447</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2911885175588793</v>
+        <v>0.2859191931127327</v>
       </c>
       <c r="D21">
-        <v>0.398922748451966</v>
+        <v>0.3749676501854111</v>
       </c>
       <c r="E21">
-        <v>0.2725761560263109</v>
+        <v>0.2680370820147147</v>
       </c>
       <c r="F21">
-        <v>10.8626328824248</v>
+        <v>10.51948562461894</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0005519288320040988</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4061364598000949</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>25.70173782640308</v>
+        <v>0.3963765564939337</v>
       </c>
       <c r="K21">
-        <v>0.09620713695617056</v>
+        <v>25.3210438330255</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.0946576621290447</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2911885175588793</v>
+        <v>0.2859191931127327</v>
       </c>
       <c r="D22">
-        <v>0.398922748451966</v>
+        <v>0.3749676501854111</v>
       </c>
       <c r="E22">
-        <v>0.2725761560263109</v>
+        <v>0.2680370820147147</v>
       </c>
       <c r="F22">
-        <v>10.8626328824248</v>
+        <v>10.51948562461894</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005519288320040988</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4061364598000949</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>25.70173782640308</v>
+        <v>0.3963765564939337</v>
       </c>
       <c r="K22">
-        <v>0.09620713695617056</v>
+        <v>25.3210438330255</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.0946576621290447</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2911885175588793</v>
+        <v>0.2859191931127327</v>
       </c>
       <c r="D23">
-        <v>0.398922748451966</v>
+        <v>0.3749676501854111</v>
       </c>
       <c r="E23">
-        <v>0.2725761560263109</v>
+        <v>0.2680370820147147</v>
       </c>
       <c r="F23">
-        <v>10.8626328824248</v>
+        <v>10.51948562461894</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005519288320040988</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4061364598000949</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>25.70173782640308</v>
+        <v>0.3963765564939337</v>
       </c>
       <c r="K23">
-        <v>0.09620713695617056</v>
+        <v>25.3210438330255</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.0946576621290447</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2911885175588793</v>
+        <v>0.2859191931127327</v>
       </c>
       <c r="D24">
-        <v>0.398922748451966</v>
+        <v>0.3749676501854111</v>
       </c>
       <c r="E24">
-        <v>0.2725761560263109</v>
+        <v>0.2680370820147147</v>
       </c>
       <c r="F24">
-        <v>10.8626328824248</v>
+        <v>10.51948562461894</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0005519288320040988</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4061364598000949</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>25.70173782640308</v>
+        <v>0.3963765564939337</v>
       </c>
       <c r="K24">
-        <v>0.09620713695617056</v>
+        <v>25.3210438330255</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.0946576621290447</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2911885175588793</v>
+        <v>0.2859191931127327</v>
       </c>
       <c r="D25">
-        <v>0.398922748451966</v>
+        <v>0.3749676501854111</v>
       </c>
       <c r="E25">
-        <v>0.2725761560263109</v>
+        <v>0.2680370820147147</v>
       </c>
       <c r="F25">
-        <v>10.8626328824248</v>
+        <v>10.51948562461894</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0005519288320040988</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4061364598000949</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>25.70173782640308</v>
+        <v>0.3963765564939337</v>
       </c>
       <c r="K25">
-        <v>0.09620713695617056</v>
+        <v>25.3210438330255</v>
       </c>
       <c r="L25">
+        <v>0.0946576621290447</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3147199885614071</v>
+        <v>0.02145098960077796</v>
       </c>
       <c r="D2">
-        <v>0.4453913342129852</v>
+        <v>2.240611955433678</v>
       </c>
       <c r="E2">
-        <v>0.2937206865783537</v>
+        <v>0.1472335409310226</v>
       </c>
       <c r="F2">
-        <v>11.94382468096327</v>
+        <v>27.04743553289688</v>
       </c>
       <c r="G2">
-        <v>0.0005261211931160508</v>
+        <v>0.0004712327430223729</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,19 +445,25 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4434631904757467</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>27.48762573634184</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1034965775374417</v>
+        <v>0.524866827216087</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>18.48540219293241</v>
+      </c>
+      <c r="N2">
+        <v>1.083135210169971</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2417213091656976</v>
+        <v>0.02669153017569847</v>
       </c>
       <c r="D3">
-        <v>0.2784474836378905</v>
+        <v>1.513386522393745</v>
       </c>
       <c r="E3">
-        <v>0.2282600256582157</v>
+        <v>0.1108469027621268</v>
       </c>
       <c r="F3">
-        <v>8.470691169609609</v>
+        <v>18.53214826241037</v>
       </c>
       <c r="G3">
-        <v>0.0005935430525232869</v>
+        <v>0.0005870697631692725</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,19 +492,25 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3268258443516388</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>21.85812859596638</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08090018758389661</v>
+        <v>0.3802716532607917</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>13.30274287977019</v>
+      </c>
+      <c r="N3">
+        <v>1.109397915535823</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2077493072964955</v>
+        <v>0.02961648748470047</v>
       </c>
       <c r="D4">
-        <v>0.2139604430540203</v>
+        <v>1.273821387266224</v>
       </c>
       <c r="E4">
-        <v>0.1973708514560855</v>
+        <v>0.09686339074061578</v>
       </c>
       <c r="F4">
-        <v>7.013272595408665</v>
+        <v>15.63591930010386</v>
       </c>
       <c r="G4">
-        <v>0.0006274952659668175</v>
+        <v>0.0006331671450665208</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,19 +539,25 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2756133441684128</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>19.07991073777072</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0701583542052866</v>
+        <v>0.3257396612695516</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11.3886308016211</v>
+      </c>
+      <c r="N4">
+        <v>1.101861267333959</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.195310847699119</v>
+        <v>0.03079949397310244</v>
       </c>
       <c r="D5">
-        <v>0.1925209948807947</v>
+        <v>1.192603996872464</v>
       </c>
       <c r="E5">
-        <v>0.1859889326046158</v>
+        <v>0.09180904359174491</v>
       </c>
       <c r="F5">
-        <v>6.506403311986531</v>
+        <v>14.64209294945528</v>
       </c>
       <c r="G5">
-        <v>0.0006404331334603452</v>
+        <v>0.000650086184331953</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,19 +586,25 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2573614792156178</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>18.03644276171769</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.06618709193600836</v>
+        <v>0.3061880042747731</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>10.70953835967984</v>
+      </c>
+      <c r="N5">
+        <v>1.097298821508616</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1933107397134961</v>
+        <v>0.03099591649593947</v>
       </c>
       <c r="D6">
-        <v>0.1891846035585871</v>
+        <v>1.179818236973517</v>
       </c>
       <c r="E6">
-        <v>0.1841549852697213</v>
+        <v>0.09099689768727615</v>
       </c>
       <c r="F6">
-        <v>6.426280946094067</v>
+        <v>14.48504235770861</v>
       </c>
       <c r="G6">
-        <v>0.000642541662576357</v>
+        <v>0.0006528191679946449</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,19 +633,25 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.254452022298274</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>17.8673032695209</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.06554653628717233</v>
+        <v>0.3030544424121189</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10.60108063450414</v>
+      </c>
+      <c r="N6">
+        <v>1.096485898317752</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2075768229960175</v>
+        <v>0.02963245174073315</v>
       </c>
       <c r="D7">
-        <v>0.2136550641421167</v>
+        <v>1.272674215924383</v>
       </c>
       <c r="E7">
-        <v>0.1972132887937335</v>
+        <v>0.0967932096853481</v>
       </c>
       <c r="F7">
-        <v>7.006143625035151</v>
+        <v>15.6219262468972</v>
       </c>
       <c r="G7">
-        <v>0.0006276726822684807</v>
+        <v>0.0006334010556430104</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,19 +680,25 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2753583933090908</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>19.06553893163186</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.07010342794150404</v>
+        <v>0.3254675934605586</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11.37915350534092</v>
+      </c>
+      <c r="N7">
+        <v>1.101804023125098</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2859191931127327</v>
+        <v>0.02342419121709938</v>
       </c>
       <c r="D8">
-        <v>0.3749676501854111</v>
+        <v>1.888834231128413</v>
       </c>
       <c r="E8">
-        <v>0.2680370820147147</v>
+        <v>0.1305669945407502</v>
       </c>
       <c r="F8">
-        <v>10.51948562461894</v>
+        <v>22.97713274145036</v>
       </c>
       <c r="G8">
-        <v>0.0005519288320040988</v>
+        <v>0.0005235691228513211</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,19 +727,25 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3963765564939337</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>25.3210438330255</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.0946576621290447</v>
+        <v>0.4582044602407223</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>16.08106739017938</v>
+      </c>
+      <c r="N8">
+        <v>1.10447936188946</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2859191931127327</v>
+        <v>0.02342419121709938</v>
       </c>
       <c r="D9">
-        <v>0.3749676501854111</v>
+        <v>1.888834231128413</v>
       </c>
       <c r="E9">
-        <v>0.2680370820147147</v>
+        <v>0.1305669945407502</v>
       </c>
       <c r="F9">
-        <v>10.51948562461894</v>
+        <v>22.97713274145036</v>
       </c>
       <c r="G9">
-        <v>0.0005519288320040988</v>
+        <v>0.0005235691228513211</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,19 +774,25 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3963765564939337</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>25.3210438330255</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.0946576621290447</v>
+        <v>0.4582044602407223</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>16.08106739017938</v>
+      </c>
+      <c r="N9">
+        <v>1.10447936188946</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2859191931127327</v>
+        <v>0.02342419121709938</v>
       </c>
       <c r="D10">
-        <v>0.3749676501854111</v>
+        <v>1.888834231128413</v>
       </c>
       <c r="E10">
-        <v>0.2680370820147147</v>
+        <v>0.1305669945407502</v>
       </c>
       <c r="F10">
-        <v>10.51948562461894</v>
+        <v>22.97713274145036</v>
       </c>
       <c r="G10">
-        <v>0.0005519288320040988</v>
+        <v>0.0005235691228513211</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,19 +821,25 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3963765564939337</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>25.3210438330255</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.0946576621290447</v>
+        <v>0.4582044602407223</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16.08106739017938</v>
+      </c>
+      <c r="N10">
+        <v>1.10447936188946</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2859191931127327</v>
+        <v>0.02342419121709938</v>
       </c>
       <c r="D11">
-        <v>0.3749676501854111</v>
+        <v>1.888834231128413</v>
       </c>
       <c r="E11">
-        <v>0.2680370820147147</v>
+        <v>0.1305669945407502</v>
       </c>
       <c r="F11">
-        <v>10.51948562461894</v>
+        <v>22.97713274145036</v>
       </c>
       <c r="G11">
-        <v>0.0005519288320040988</v>
+        <v>0.0005235691228513211</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,19 +868,25 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3963765564939337</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>25.3210438330255</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.0946576621290447</v>
+        <v>0.4582044602407223</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16.08106739017938</v>
+      </c>
+      <c r="N11">
+        <v>1.10447936188946</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2859191931127327</v>
+        <v>0.02342419121709938</v>
       </c>
       <c r="D12">
-        <v>0.3749676501854111</v>
+        <v>1.888834231128413</v>
       </c>
       <c r="E12">
-        <v>0.2680370820147147</v>
+        <v>0.1305669945407502</v>
       </c>
       <c r="F12">
-        <v>10.51948562461894</v>
+        <v>22.97713274145036</v>
       </c>
       <c r="G12">
-        <v>0.0005519288320040988</v>
+        <v>0.0005235691228513211</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,19 +915,25 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3963765564939337</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>25.3210438330255</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.0946576621290447</v>
+        <v>0.4582044602407223</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16.08106739017938</v>
+      </c>
+      <c r="N12">
+        <v>1.10447936188946</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2859191931127327</v>
+        <v>0.02342419121709938</v>
       </c>
       <c r="D13">
-        <v>0.3749676501854111</v>
+        <v>1.888834231128413</v>
       </c>
       <c r="E13">
-        <v>0.2680370820147147</v>
+        <v>0.1305669945407502</v>
       </c>
       <c r="F13">
-        <v>10.51948562461894</v>
+        <v>22.97713274145036</v>
       </c>
       <c r="G13">
-        <v>0.0005519288320040988</v>
+        <v>0.0005235691228513211</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,19 +962,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3963765564939337</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>25.3210438330255</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.0946576621290447</v>
+        <v>0.4582044602407223</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16.08106739017938</v>
+      </c>
+      <c r="N13">
+        <v>1.10447936188946</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2859191931127327</v>
+        <v>0.02342419121709938</v>
       </c>
       <c r="D14">
-        <v>0.3749676501854111</v>
+        <v>1.888834231128413</v>
       </c>
       <c r="E14">
-        <v>0.2680370820147147</v>
+        <v>0.1305669945407502</v>
       </c>
       <c r="F14">
-        <v>10.51948562461894</v>
+        <v>22.97713274145036</v>
       </c>
       <c r="G14">
-        <v>0.0005519288320040988</v>
+        <v>0.0005235691228513211</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,19 +1009,25 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3963765564939337</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>25.3210438330255</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.0946576621290447</v>
+        <v>0.4582044602407223</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16.08106739017938</v>
+      </c>
+      <c r="N14">
+        <v>1.10447936188946</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2859191931127327</v>
+        <v>0.02342419121709938</v>
       </c>
       <c r="D15">
-        <v>0.3749676501854111</v>
+        <v>1.888834231128413</v>
       </c>
       <c r="E15">
-        <v>0.2680370820147147</v>
+        <v>0.1305669945407502</v>
       </c>
       <c r="F15">
-        <v>10.51948562461894</v>
+        <v>22.97713274145036</v>
       </c>
       <c r="G15">
-        <v>0.0005519288320040988</v>
+        <v>0.0005235691228513211</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,19 +1056,25 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3963765564939337</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>25.3210438330255</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.0946576621290447</v>
+        <v>0.4582044602407223</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16.08106739017938</v>
+      </c>
+      <c r="N15">
+        <v>1.10447936188946</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2859191931127327</v>
+        <v>0.02342419121709938</v>
       </c>
       <c r="D16">
-        <v>0.3749676501854111</v>
+        <v>1.888834231128413</v>
       </c>
       <c r="E16">
-        <v>0.2680370820147147</v>
+        <v>0.1305669945407502</v>
       </c>
       <c r="F16">
-        <v>10.51948562461894</v>
+        <v>22.97713274145036</v>
       </c>
       <c r="G16">
-        <v>0.0005519288320040988</v>
+        <v>0.0005235691228513211</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,19 +1103,25 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3963765564939337</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>25.3210438330255</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.0946576621290447</v>
+        <v>0.4582044602407223</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>16.08106739017938</v>
+      </c>
+      <c r="N16">
+        <v>1.10447936188946</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2859191931127327</v>
+        <v>0.02342419121709938</v>
       </c>
       <c r="D17">
-        <v>0.3749676501854111</v>
+        <v>1.888834231128413</v>
       </c>
       <c r="E17">
-        <v>0.2680370820147147</v>
+        <v>0.1305669945407502</v>
       </c>
       <c r="F17">
-        <v>10.51948562461894</v>
+        <v>22.97713274145036</v>
       </c>
       <c r="G17">
-        <v>0.0005519288320040988</v>
+        <v>0.0005235691228513211</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,19 +1150,25 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3963765564939337</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>25.3210438330255</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.0946576621290447</v>
+        <v>0.4582044602407223</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>16.08106739017938</v>
+      </c>
+      <c r="N17">
+        <v>1.10447936188946</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2859191931127327</v>
+        <v>0.02342419121709938</v>
       </c>
       <c r="D18">
-        <v>0.3749676501854111</v>
+        <v>1.888834231128413</v>
       </c>
       <c r="E18">
-        <v>0.2680370820147147</v>
+        <v>0.1305669945407502</v>
       </c>
       <c r="F18">
-        <v>10.51948562461894</v>
+        <v>22.97713274145036</v>
       </c>
       <c r="G18">
-        <v>0.0005519288320040988</v>
+        <v>0.0005235691228513211</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,19 +1197,25 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3963765564939337</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>25.3210438330255</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.0946576621290447</v>
+        <v>0.4582044602407223</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>16.08106739017938</v>
+      </c>
+      <c r="N18">
+        <v>1.10447936188946</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2859191931127327</v>
+        <v>0.02342419121709938</v>
       </c>
       <c r="D19">
-        <v>0.3749676501854111</v>
+        <v>1.888834231128413</v>
       </c>
       <c r="E19">
-        <v>0.2680370820147147</v>
+        <v>0.1305669945407502</v>
       </c>
       <c r="F19">
-        <v>10.51948562461894</v>
+        <v>22.97713274145036</v>
       </c>
       <c r="G19">
-        <v>0.0005519288320040988</v>
+        <v>0.0005235691228513211</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,19 +1244,25 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3963765564939337</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>25.3210438330255</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.0946576621290447</v>
+        <v>0.4582044602407223</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>16.08106739017938</v>
+      </c>
+      <c r="N19">
+        <v>1.10447936188946</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2859191931127327</v>
+        <v>0.02342419121709938</v>
       </c>
       <c r="D20">
-        <v>0.3749676501854111</v>
+        <v>1.888834231128413</v>
       </c>
       <c r="E20">
-        <v>0.2680370820147147</v>
+        <v>0.1305669945407502</v>
       </c>
       <c r="F20">
-        <v>10.51948562461894</v>
+        <v>22.97713274145036</v>
       </c>
       <c r="G20">
-        <v>0.0005519288320040988</v>
+        <v>0.0005235691228513211</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,19 +1291,25 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3963765564939337</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>25.3210438330255</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.0946576621290447</v>
+        <v>0.4582044602407223</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>16.08106739017938</v>
+      </c>
+      <c r="N20">
+        <v>1.10447936188946</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2859191931127327</v>
+        <v>0.02342419121709938</v>
       </c>
       <c r="D21">
-        <v>0.3749676501854111</v>
+        <v>1.888834231128413</v>
       </c>
       <c r="E21">
-        <v>0.2680370820147147</v>
+        <v>0.1305669945407502</v>
       </c>
       <c r="F21">
-        <v>10.51948562461894</v>
+        <v>22.97713274145036</v>
       </c>
       <c r="G21">
-        <v>0.0005519288320040988</v>
+        <v>0.0005235691228513211</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,19 +1338,25 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3963765564939337</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>25.3210438330255</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.0946576621290447</v>
+        <v>0.4582044602407223</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16.08106739017938</v>
+      </c>
+      <c r="N21">
+        <v>1.10447936188946</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2859191931127327</v>
+        <v>0.02342419121709938</v>
       </c>
       <c r="D22">
-        <v>0.3749676501854111</v>
+        <v>1.888834231128413</v>
       </c>
       <c r="E22">
-        <v>0.2680370820147147</v>
+        <v>0.1305669945407502</v>
       </c>
       <c r="F22">
-        <v>10.51948562461894</v>
+        <v>22.97713274145036</v>
       </c>
       <c r="G22">
-        <v>0.0005519288320040988</v>
+        <v>0.0005235691228513211</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,19 +1385,25 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3963765564939337</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>25.3210438330255</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.0946576621290447</v>
+        <v>0.4582044602407223</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>16.08106739017938</v>
+      </c>
+      <c r="N22">
+        <v>1.10447936188946</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2859191931127327</v>
+        <v>0.02342419121709938</v>
       </c>
       <c r="D23">
-        <v>0.3749676501854111</v>
+        <v>1.888834231128413</v>
       </c>
       <c r="E23">
-        <v>0.2680370820147147</v>
+        <v>0.1305669945407502</v>
       </c>
       <c r="F23">
-        <v>10.51948562461894</v>
+        <v>22.97713274145036</v>
       </c>
       <c r="G23">
-        <v>0.0005519288320040988</v>
+        <v>0.0005235691228513211</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,19 +1432,25 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3963765564939337</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>25.3210438330255</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.0946576621290447</v>
+        <v>0.4582044602407223</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>16.08106739017938</v>
+      </c>
+      <c r="N23">
+        <v>1.10447936188946</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2859191931127327</v>
+        <v>0.02342419121709938</v>
       </c>
       <c r="D24">
-        <v>0.3749676501854111</v>
+        <v>1.888834231128413</v>
       </c>
       <c r="E24">
-        <v>0.2680370820147147</v>
+        <v>0.1305669945407502</v>
       </c>
       <c r="F24">
-        <v>10.51948562461894</v>
+        <v>22.97713274145036</v>
       </c>
       <c r="G24">
-        <v>0.0005519288320040988</v>
+        <v>0.0005235691228513211</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,19 +1479,25 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3963765564939337</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>25.3210438330255</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.0946576621290447</v>
+        <v>0.4582044602407223</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>16.08106739017938</v>
+      </c>
+      <c r="N24">
+        <v>1.10447936188946</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2859191931127327</v>
+        <v>0.02342419121709938</v>
       </c>
       <c r="D25">
-        <v>0.3749676501854111</v>
+        <v>1.888834231128413</v>
       </c>
       <c r="E25">
-        <v>0.2680370820147147</v>
+        <v>0.1305669945407502</v>
       </c>
       <c r="F25">
-        <v>10.51948562461894</v>
+        <v>22.97713274145036</v>
       </c>
       <c r="G25">
-        <v>0.0005519288320040988</v>
+        <v>0.0005235691228513211</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3963765564939337</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>25.3210438330255</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.0946576621290447</v>
+        <v>0.4582044602407223</v>
       </c>
       <c r="M25">
+        <v>16.08106739017938</v>
+      </c>
+      <c r="N25">
+        <v>1.10447936188946</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02145098960077796</v>
+        <v>0.2449500452161715</v>
       </c>
       <c r="D2">
-        <v>2.240611955433678</v>
+        <v>0.0003330007966377835</v>
       </c>
       <c r="E2">
-        <v>0.1472335409310226</v>
+        <v>0.06785534920149061</v>
       </c>
       <c r="F2">
-        <v>27.04743553289688</v>
+        <v>4.11421895692385</v>
       </c>
       <c r="G2">
-        <v>0.0004712327430223729</v>
+        <v>0.0008487938700960633</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2139736236604506</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>7.150620305818734</v>
       </c>
       <c r="L2">
-        <v>0.524866827216087</v>
+        <v>0.03791890956600241</v>
       </c>
       <c r="M2">
-        <v>18.48540219293241</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.083135210169971</v>
+        <v>1.496002813634924</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02669153017569847</v>
+        <v>0.2235086946663927</v>
       </c>
       <c r="D3">
-        <v>1.513386522393745</v>
+        <v>0.0004037559250553713</v>
       </c>
       <c r="E3">
-        <v>0.1108469027621268</v>
+        <v>0.06333181590959924</v>
       </c>
       <c r="F3">
-        <v>18.53214826241037</v>
+        <v>3.858260065101689</v>
       </c>
       <c r="G3">
-        <v>0.0005870697631692725</v>
+        <v>0.0008611239254648447</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2020186213615247</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>6.313524261445082</v>
       </c>
       <c r="L3">
-        <v>0.3802716532607917</v>
+        <v>0.03654017346561744</v>
       </c>
       <c r="M3">
-        <v>13.30274287977019</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.109397915535823</v>
+        <v>1.564637220814149</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02961648748470047</v>
+        <v>0.2108402048870204</v>
       </c>
       <c r="D4">
-        <v>1.273821387266224</v>
+        <v>0.0004600707473429999</v>
       </c>
       <c r="E4">
-        <v>0.09686339074061578</v>
+        <v>0.06067285955122159</v>
       </c>
       <c r="F4">
-        <v>15.63591930010386</v>
+        <v>3.711164906033076</v>
       </c>
       <c r="G4">
-        <v>0.0006331671450665208</v>
+        <v>0.0008688564318485078</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1951420929355479</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>5.814519295162654</v>
       </c>
       <c r="L4">
-        <v>0.3257396612695516</v>
+        <v>0.03574183517817531</v>
       </c>
       <c r="M4">
-        <v>11.3886308016211</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.101861267333959</v>
+        <v>1.609047977717466</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03079949397310244</v>
+        <v>0.2057895078088023</v>
       </c>
       <c r="D5">
-        <v>1.192603996872464</v>
+        <v>0.0004857465889753776</v>
       </c>
       <c r="E5">
-        <v>0.09180904359174491</v>
+        <v>0.05961643364513236</v>
       </c>
       <c r="F5">
-        <v>14.64209294945528</v>
+        <v>3.653504398097823</v>
       </c>
       <c r="G5">
-        <v>0.000650086184331953</v>
+        <v>0.0008720517656418186</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1924456937703241</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>5.614467828164265</v>
       </c>
       <c r="L5">
-        <v>0.3061880042747731</v>
+        <v>0.03542786565278178</v>
       </c>
       <c r="M5">
-        <v>10.70953835967984</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.097298821508616</v>
+        <v>1.627687325937032</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03099591649593947</v>
+        <v>0.204957241313906</v>
       </c>
       <c r="D6">
-        <v>1.179818236973517</v>
+        <v>0.0004901612663910093</v>
       </c>
       <c r="E6">
-        <v>0.09099689768727615</v>
+        <v>0.05944257996614155</v>
       </c>
       <c r="F6">
-        <v>14.48504235770861</v>
+        <v>3.644060969080329</v>
       </c>
       <c r="G6">
-        <v>0.0006528191679946449</v>
+        <v>0.0008725851204821029</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1920040574542909</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>5.581435826944016</v>
       </c>
       <c r="L6">
-        <v>0.3030544424121189</v>
+        <v>0.03537639659769098</v>
       </c>
       <c r="M6">
-        <v>10.60108063450414</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.096485898317752</v>
+        <v>1.630814302743595</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02963245174073315</v>
+        <v>0.2107716529282015</v>
       </c>
       <c r="D7">
-        <v>1.272674215924383</v>
+        <v>0.0004604065979174621</v>
       </c>
       <c r="E7">
-        <v>0.0967932096853481</v>
+        <v>0.06065850574708165</v>
       </c>
       <c r="F7">
-        <v>15.6219262468972</v>
+        <v>3.710378346098452</v>
       </c>
       <c r="G7">
-        <v>0.0006334010556430104</v>
+        <v>0.0008688993414881044</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1951053132349969</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>5.811808563782279</v>
       </c>
       <c r="L7">
-        <v>0.3254675934605586</v>
+        <v>0.03573755582876004</v>
       </c>
       <c r="M7">
-        <v>11.37915350534092</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.101804023125098</v>
+        <v>1.609297197402533</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02342419121709938</v>
+        <v>0.2374456805443685</v>
       </c>
       <c r="D8">
-        <v>1.888834231128413</v>
+        <v>0.0003543944411510402</v>
       </c>
       <c r="E8">
-        <v>0.1305669945407502</v>
+        <v>0.06626932945029296</v>
       </c>
       <c r="F8">
-        <v>22.97713274145036</v>
+        <v>4.023716729027086</v>
       </c>
       <c r="G8">
-        <v>0.0005235691228513211</v>
+        <v>0.0008530139727755424</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2097483646283465</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>6.85858255077045</v>
       </c>
       <c r="L8">
-        <v>0.4582044602407223</v>
+        <v>0.03743302815038163</v>
       </c>
       <c r="M8">
-        <v>16.08106739017938</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.10447936188946</v>
+        <v>1.519178547042436</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02342419121709938</v>
+        <v>0.2943698969332331</v>
       </c>
       <c r="D9">
-        <v>1.888834231128413</v>
+        <v>0.0002763437585371342</v>
       </c>
       <c r="E9">
-        <v>0.1305669945407502</v>
+        <v>0.07835138530818142</v>
       </c>
       <c r="F9">
-        <v>22.97713274145036</v>
+        <v>4.73093305499529</v>
       </c>
       <c r="G9">
-        <v>0.0005235691228513211</v>
+        <v>0.0008229617329401845</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2427049957624874</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>9.054456848674533</v>
       </c>
       <c r="L9">
-        <v>0.4582044602407223</v>
+        <v>0.04118003721125163</v>
       </c>
       <c r="M9">
-        <v>16.08106739017938</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.10447936188946</v>
+        <v>1.36196230938738</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02342419121709938</v>
+        <v>0.3401136311525192</v>
       </c>
       <c r="D10">
-        <v>1.888834231128413</v>
+        <v>0.0003461419187500425</v>
       </c>
       <c r="E10">
-        <v>0.1305669945407502</v>
+        <v>0.08811341035980291</v>
       </c>
       <c r="F10">
-        <v>22.97713274145036</v>
+        <v>5.328236984811525</v>
       </c>
       <c r="G10">
-        <v>0.0005235691228513211</v>
+        <v>0.000801250999650459</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2704249115913342</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>10.79497812182808</v>
       </c>
       <c r="L10">
-        <v>0.4582044602407223</v>
+        <v>0.04425535552179483</v>
       </c>
       <c r="M10">
-        <v>16.08106739017938</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.10447936188946</v>
+        <v>1.260824186798388</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02342419121709938</v>
+        <v>0.362080765261112</v>
       </c>
       <c r="D11">
-        <v>1.888834231128413</v>
+        <v>0.0004197648443002855</v>
       </c>
       <c r="E11">
-        <v>0.1305669945407502</v>
+        <v>0.09280937212924556</v>
       </c>
       <c r="F11">
-        <v>22.97713274145036</v>
+        <v>5.622709394838978</v>
       </c>
       <c r="G11">
-        <v>0.0005235691228513211</v>
+        <v>0.0007913715080367645</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2840524275432159</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>11.62547720474191</v>
       </c>
       <c r="L11">
-        <v>0.4582044602407223</v>
+        <v>0.04574232308308979</v>
       </c>
       <c r="M11">
-        <v>16.08106739017938</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.10447936188946</v>
+        <v>1.218630027463036</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02342419121709938</v>
+        <v>0.3705970914244858</v>
       </c>
       <c r="D12">
-        <v>1.888834231128413</v>
+        <v>0.0004552243835567182</v>
       </c>
       <c r="E12">
-        <v>0.1305669945407502</v>
+        <v>0.09463074263895521</v>
       </c>
       <c r="F12">
-        <v>22.97713274145036</v>
+        <v>5.738097327100917</v>
       </c>
       <c r="G12">
-        <v>0.0005235691228513211</v>
+        <v>0.0007876214649061968</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2893855632119795</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>11.94667605257081</v>
       </c>
       <c r="L12">
-        <v>0.4582044602407223</v>
+        <v>0.04631988766746176</v>
       </c>
       <c r="M12">
-        <v>16.08106739017938</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.10447936188946</v>
+        <v>1.203273794574073</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02342419121709938</v>
+        <v>0.3687535846867149</v>
       </c>
       <c r="D13">
-        <v>1.888834231128413</v>
+        <v>0.0004472215035522531</v>
       </c>
       <c r="E13">
-        <v>0.1305669945407502</v>
+        <v>0.09423644495206318</v>
       </c>
       <c r="F13">
-        <v>22.97713274145036</v>
+        <v>5.713063084604329</v>
       </c>
       <c r="G13">
-        <v>0.0005235691228513211</v>
+        <v>0.0007884296510999683</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.288228820492904</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>11.87718130756821</v>
       </c>
       <c r="L13">
-        <v>0.4582044602407223</v>
+        <v>0.0461948217960142</v>
       </c>
       <c r="M13">
-        <v>16.08106739017938</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.10447936188946</v>
+        <v>1.206552050633562</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02342419121709938</v>
+        <v>0.3627772423579074</v>
       </c>
       <c r="D14">
-        <v>1.888834231128413</v>
+        <v>0.000422519928969578</v>
       </c>
       <c r="E14">
-        <v>0.1305669945407502</v>
+        <v>0.09295831218212314</v>
       </c>
       <c r="F14">
-        <v>22.97713274145036</v>
+        <v>5.632120823177047</v>
       </c>
       <c r="G14">
-        <v>0.0005235691228513211</v>
+        <v>0.0007910632218746188</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2844875572616985</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>11.65176069591365</v>
       </c>
       <c r="L14">
-        <v>0.4582044602407223</v>
+        <v>0.0457895376990578</v>
       </c>
       <c r="M14">
-        <v>16.08106739017938</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.10447936188946</v>
+        <v>1.217353726059116</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02342419121709938</v>
+        <v>0.3591433578623651</v>
       </c>
       <c r="D15">
-        <v>1.888834231128413</v>
+        <v>0.0004084293016193286</v>
       </c>
       <c r="E15">
-        <v>0.1305669945407502</v>
+        <v>0.09218124477162348</v>
       </c>
       <c r="F15">
-        <v>22.97713274145036</v>
+        <v>5.583066315895877</v>
       </c>
       <c r="G15">
-        <v>0.0005235691228513211</v>
+        <v>0.0007926749239206554</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2822192854695516</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11.51459505009592</v>
       </c>
       <c r="L15">
-        <v>0.4582044602407223</v>
+        <v>0.04554323570581076</v>
       </c>
       <c r="M15">
-        <v>16.08106739017938</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.10447936188946</v>
+        <v>1.224053468019946</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02342419121709938</v>
+        <v>0.3387038759122163</v>
       </c>
       <c r="D16">
-        <v>1.888834231128413</v>
+        <v>0.0003422981370135858</v>
       </c>
       <c r="E16">
-        <v>0.1305669945407502</v>
+        <v>0.08781217459319635</v>
       </c>
       <c r="F16">
-        <v>22.97713274145036</v>
+        <v>5.309499572554358</v>
       </c>
       <c r="G16">
-        <v>0.0005235691228513211</v>
+        <v>0.0008018958981530058</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2695569379399814</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>10.74157474219066</v>
       </c>
       <c r="L16">
-        <v>0.4582044602407223</v>
+        <v>0.04416009803338383</v>
       </c>
       <c r="M16">
-        <v>16.08106739017938</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.10447936188946</v>
+        <v>1.263664363945225</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02342419121709938</v>
+        <v>0.3264820303667477</v>
       </c>
       <c r="D17">
-        <v>1.888834231128413</v>
+        <v>0.0003134524022070373</v>
       </c>
       <c r="E17">
-        <v>0.1305669945407502</v>
+        <v>0.08520144979551603</v>
       </c>
       <c r="F17">
-        <v>22.97713274145036</v>
+        <v>5.147899219685115</v>
       </c>
       <c r="G17">
-        <v>0.0005235691228513211</v>
+        <v>0.0008075463298734199</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2620668545338276</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>10.27801472675566</v>
       </c>
       <c r="L17">
-        <v>0.4582044602407223</v>
+        <v>0.04333532297253484</v>
       </c>
       <c r="M17">
-        <v>16.08106739017938</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.10447936188946</v>
+        <v>1.288989006584089</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02342419121709938</v>
+        <v>0.3195591699226839</v>
       </c>
       <c r="D18">
-        <v>1.888834231128413</v>
+        <v>0.0003006902018078961</v>
       </c>
       <c r="E18">
-        <v>0.1305669945407502</v>
+        <v>0.08372340052776295</v>
       </c>
       <c r="F18">
-        <v>22.97713274145036</v>
+        <v>5.057050584743166</v>
       </c>
       <c r="G18">
-        <v>0.0005235691228513211</v>
+        <v>0.0008107965978765286</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2578526951823221</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>10.01495301321921</v>
       </c>
       <c r="L18">
-        <v>0.4582044602407223</v>
+        <v>0.04286908889231356</v>
       </c>
       <c r="M18">
-        <v>16.08106739017938</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.10447936188946</v>
+        <v>1.30390892458044</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02342419121709938</v>
+        <v>0.3172326935628291</v>
       </c>
       <c r="D19">
-        <v>1.888834231128413</v>
+        <v>0.0002969850184197931</v>
       </c>
       <c r="E19">
-        <v>0.1305669945407502</v>
+        <v>0.08322683005535225</v>
       </c>
       <c r="F19">
-        <v>22.97713274145036</v>
+        <v>5.026634789293581</v>
       </c>
       <c r="G19">
-        <v>0.0005235691228513211</v>
+        <v>0.0008118973645666941</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2564412636457973</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>9.926466007579677</v>
       </c>
       <c r="L19">
-        <v>0.4582044602407223</v>
+        <v>0.04271258023852909</v>
       </c>
       <c r="M19">
-        <v>16.08106739017938</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.10447936188946</v>
+        <v>1.309019322463485</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02342419121709938</v>
+        <v>0.3277718026666889</v>
       </c>
       <c r="D20">
-        <v>1.888834231128413</v>
+        <v>0.0003161166345977406</v>
       </c>
       <c r="E20">
-        <v>0.1305669945407502</v>
+        <v>0.08547688371831086</v>
       </c>
       <c r="F20">
-        <v>22.97713274145036</v>
+        <v>5.1648805302695</v>
       </c>
       <c r="G20">
-        <v>0.0005235691228513211</v>
+        <v>0.0008069448580048793</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2628542893438208</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>10.32698488041854</v>
       </c>
       <c r="L20">
-        <v>0.4582044602407223</v>
+        <v>0.04342226551921158</v>
       </c>
       <c r="M20">
-        <v>16.08106739017938</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.10447936188946</v>
+        <v>1.286256047344082</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02342419121709938</v>
+        <v>0.3645269896827585</v>
       </c>
       <c r="D21">
-        <v>1.888834231128413</v>
+        <v>0.0004295553568920418</v>
       </c>
       <c r="E21">
-        <v>0.1305669945407502</v>
+        <v>0.09333250342083588</v>
       </c>
       <c r="F21">
-        <v>22.97713274145036</v>
+        <v>5.655784872048145</v>
       </c>
       <c r="G21">
-        <v>0.0005235691228513211</v>
+        <v>0.0007902899950992888</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2855815341778509</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>11.71777999011471</v>
       </c>
       <c r="L21">
-        <v>0.4582044602407223</v>
+        <v>0.04590817010223347</v>
       </c>
       <c r="M21">
-        <v>16.08106739017938</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.10447936188946</v>
+        <v>1.214163478265846</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02342419121709938</v>
+        <v>0.3897210542957055</v>
       </c>
       <c r="D22">
-        <v>1.888834231128413</v>
+        <v>0.0005488943110041333</v>
       </c>
       <c r="E22">
-        <v>0.1305669945407502</v>
+        <v>0.0987218248656454</v>
       </c>
       <c r="F22">
-        <v>22.97713274145036</v>
+        <v>5.999594115049319</v>
       </c>
       <c r="G22">
-        <v>0.0005235691228513211</v>
+        <v>0.0007793480655318758</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3014579360887382</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>12.66653863681358</v>
       </c>
       <c r="L22">
-        <v>0.4582044602407223</v>
+        <v>0.04761838420451525</v>
       </c>
       <c r="M22">
-        <v>16.08106739017938</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.10447936188946</v>
+        <v>1.170716661684622</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02342419121709938</v>
+        <v>0.3761552239248545</v>
       </c>
       <c r="D23">
-        <v>1.888834231128413</v>
+        <v>0.0004804459408420669</v>
       </c>
       <c r="E23">
-        <v>0.1305669945407502</v>
+        <v>0.0958196308012127</v>
       </c>
       <c r="F23">
-        <v>22.97713274145036</v>
+        <v>5.813761721835903</v>
       </c>
       <c r="G23">
-        <v>0.0005235691228513211</v>
+        <v>0.0007851964304006561</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.292880674281534</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.15608987775113</v>
       </c>
       <c r="L23">
-        <v>0.4582044602407223</v>
+        <v>0.04669708455294952</v>
       </c>
       <c r="M23">
-        <v>16.08106739017938</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.10447936188946</v>
+        <v>1.193540910808125</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02342419121709938</v>
+        <v>0.3271883760641003</v>
       </c>
       <c r="D24">
-        <v>1.888834231128413</v>
+        <v>0.0003149003440787723</v>
       </c>
       <c r="E24">
-        <v>0.1305669945407502</v>
+        <v>0.08535228920694848</v>
       </c>
       <c r="F24">
-        <v>22.97713274145036</v>
+        <v>5.157196915040316</v>
       </c>
       <c r="G24">
-        <v>0.0005235691228513211</v>
+        <v>0.0008072167774509169</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2624980054549724</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>10.30483482598493</v>
       </c>
       <c r="L24">
-        <v>0.4582044602407223</v>
+        <v>0.04338293419515793</v>
       </c>
       <c r="M24">
-        <v>16.08106739017938</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.10447936188946</v>
+        <v>1.287490500903345</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02342419121709938</v>
+        <v>0.2783721917519841</v>
       </c>
       <c r="D25">
-        <v>1.888834231128413</v>
+        <v>0.0002791960847972064</v>
       </c>
       <c r="E25">
-        <v>0.1305669945407502</v>
+        <v>0.07494596858418845</v>
       </c>
       <c r="F25">
-        <v>22.97713274145036</v>
+        <v>4.527698233865266</v>
       </c>
       <c r="G25">
-        <v>0.0005235691228513211</v>
+        <v>0.0008310023725917063</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2332489793353645</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>8.441344157434798</v>
       </c>
       <c r="L25">
-        <v>0.4582044602407223</v>
+        <v>0.04011506625476713</v>
       </c>
       <c r="M25">
-        <v>16.08106739017938</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.10447936188946</v>
+        <v>1.402174465867731</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2449500452161715</v>
+        <v>0.3815305756956633</v>
       </c>
       <c r="D2">
-        <v>0.0003330007966377835</v>
+        <v>0.002134724172690561</v>
       </c>
       <c r="E2">
-        <v>0.06785534920149061</v>
+        <v>0.1404285716962121</v>
       </c>
       <c r="F2">
-        <v>4.11421895692385</v>
+        <v>6.749199704656434</v>
       </c>
       <c r="G2">
-        <v>0.0008487938700960633</v>
+        <v>0.002739163467331122</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2139736236604506</v>
+        <v>0.411582027710871</v>
       </c>
       <c r="K2">
-        <v>7.150620305818734</v>
+        <v>7.17345529442855</v>
       </c>
       <c r="L2">
-        <v>0.03791890956600241</v>
+        <v>0.1078575182435983</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.496002813634924</v>
+        <v>3.042330431169951</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2235086946663927</v>
+        <v>0.3790029559230987</v>
       </c>
       <c r="D3">
-        <v>0.0004037559250553713</v>
+        <v>0.002080854931796772</v>
       </c>
       <c r="E3">
-        <v>0.06333181590959924</v>
+        <v>0.1402407805228627</v>
       </c>
       <c r="F3">
-        <v>3.858260065101689</v>
+        <v>6.732833995454939</v>
       </c>
       <c r="G3">
-        <v>0.0008611239254648447</v>
+        <v>0.002746628382989906</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2020186213615247</v>
+        <v>0.4114288678814688</v>
       </c>
       <c r="K3">
-        <v>6.313524261445082</v>
+        <v>7.021203082432805</v>
       </c>
       <c r="L3">
-        <v>0.03654017346561744</v>
+        <v>0.1081090689335014</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.564637220814149</v>
+        <v>3.068078590658907</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2108402048870204</v>
+        <v>0.3776406817193703</v>
       </c>
       <c r="D4">
-        <v>0.0004600707473429999</v>
+        <v>0.002047772904118395</v>
       </c>
       <c r="E4">
-        <v>0.06067285955122159</v>
+        <v>0.1401837708317082</v>
       </c>
       <c r="F4">
-        <v>3.711164906033076</v>
+        <v>6.726165882364285</v>
       </c>
       <c r="G4">
-        <v>0.0008688564318485078</v>
+        <v>0.002751448216430822</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1951420929355479</v>
+        <v>0.4115199674684575</v>
       </c>
       <c r="K4">
-        <v>5.814519295162654</v>
+        <v>6.932005017229812</v>
       </c>
       <c r="L4">
-        <v>0.03574183517817531</v>
+        <v>0.1082973440956891</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.609047977717466</v>
+        <v>3.084777013009628</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2057895078088023</v>
+        <v>0.3771331437783374</v>
       </c>
       <c r="D5">
-        <v>0.0004857465889753776</v>
+        <v>0.002034284862578062</v>
       </c>
       <c r="E5">
-        <v>0.05961643364513236</v>
+        <v>0.140175195025467</v>
       </c>
       <c r="F5">
-        <v>3.653504398097823</v>
+        <v>6.724295434048685</v>
       </c>
       <c r="G5">
-        <v>0.0008720517656418186</v>
+        <v>0.002753471997550418</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1924456937703241</v>
+        <v>0.4116035465865906</v>
       </c>
       <c r="K5">
-        <v>5.614467828164265</v>
+        <v>6.896728821593911</v>
       </c>
       <c r="L5">
-        <v>0.03542786565278178</v>
+        <v>0.1083825882390848</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.627687325937032</v>
+        <v>3.09180473124006</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.204957241313906</v>
+        <v>0.3770517395554407</v>
       </c>
       <c r="D6">
-        <v>0.0004901612663910093</v>
+        <v>0.002032044621001372</v>
       </c>
       <c r="E6">
-        <v>0.05944257996614155</v>
+        <v>0.140174656157722</v>
       </c>
       <c r="F6">
-        <v>3.644060969080329</v>
+        <v>6.724035903807106</v>
       </c>
       <c r="G6">
-        <v>0.0008725851204821029</v>
+        <v>0.002753811654914165</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1920040574542909</v>
+        <v>0.4116202277708609</v>
       </c>
       <c r="K6">
-        <v>5.581435826944016</v>
+        <v>6.890935887679234</v>
       </c>
       <c r="L6">
-        <v>0.03537639659769098</v>
+        <v>0.1083972580483383</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.630814302743595</v>
+        <v>3.092985129510303</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2107716529282015</v>
+        <v>0.3776336442836055</v>
       </c>
       <c r="D7">
-        <v>0.0004604065979174621</v>
+        <v>0.002047591033070839</v>
       </c>
       <c r="E7">
-        <v>0.06065850574708165</v>
+        <v>0.1401835958356052</v>
       </c>
       <c r="F7">
-        <v>3.710378346098452</v>
+        <v>6.726137232075445</v>
       </c>
       <c r="G7">
-        <v>0.0008688993414881044</v>
+        <v>0.002751475267943171</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1951053132349969</v>
+        <v>0.4115209066782768</v>
       </c>
       <c r="K7">
-        <v>5.811808563782279</v>
+        <v>6.931524932928369</v>
       </c>
       <c r="L7">
-        <v>0.03573755582876004</v>
+        <v>0.1082984592080045</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.609297197402533</v>
+        <v>3.084870889176734</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2374456805443685</v>
+        <v>0.3806196179695576</v>
       </c>
       <c r="D8">
-        <v>0.0003543944411510402</v>
+        <v>0.002116148017130115</v>
       </c>
       <c r="E8">
-        <v>0.06626932945029296</v>
+        <v>0.1403517199614086</v>
       </c>
       <c r="F8">
-        <v>4.023716729027086</v>
+        <v>6.742853224995201</v>
       </c>
       <c r="G8">
-        <v>0.0008530139727755424</v>
+        <v>0.002741688455043943</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2097483646283465</v>
+        <v>0.4114907303690174</v>
       </c>
       <c r="K8">
-        <v>6.85858255077045</v>
+        <v>7.120066265132948</v>
       </c>
       <c r="L8">
-        <v>0.03743302815038163</v>
+        <v>0.1079372423301876</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.519178547042436</v>
+        <v>3.051023559922015</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2943698969332331</v>
+        <v>0.3879857178116595</v>
       </c>
       <c r="D9">
-        <v>0.0002763437585371342</v>
+        <v>0.002250799958516847</v>
       </c>
       <c r="E9">
-        <v>0.07835138530818142</v>
+        <v>0.141144294084512</v>
       </c>
       <c r="F9">
-        <v>4.73093305499529</v>
+        <v>6.802611928388359</v>
       </c>
       <c r="G9">
-        <v>0.0008229617329401845</v>
+        <v>0.00272436136347383</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2427049957624874</v>
+        <v>0.4129056531503181</v>
       </c>
       <c r="K9">
-        <v>9.054456848674533</v>
+        <v>7.524051169166739</v>
       </c>
       <c r="L9">
-        <v>0.04118003721125163</v>
+        <v>0.1074966405494067</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.36196230938738</v>
+        <v>2.991726843881963</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3401136311525192</v>
+        <v>0.3943274597363882</v>
       </c>
       <c r="D10">
-        <v>0.0003461419187500425</v>
+        <v>0.002350248536267863</v>
       </c>
       <c r="E10">
-        <v>0.08811341035980291</v>
+        <v>0.1420095792312104</v>
       </c>
       <c r="F10">
-        <v>5.328236984811525</v>
+        <v>6.863197038947419</v>
       </c>
       <c r="G10">
-        <v>0.000801250999650459</v>
+        <v>0.002712753293287255</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2704249115913342</v>
+        <v>0.4148517681236825</v>
       </c>
       <c r="K10">
-        <v>10.79497812182808</v>
+        <v>7.842142006270421</v>
       </c>
       <c r="L10">
-        <v>0.04425535552179483</v>
+        <v>0.1073354247605955</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.260824186798388</v>
+        <v>2.952509055831285</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.362080765261112</v>
+        <v>0.3974164937848741</v>
       </c>
       <c r="D11">
-        <v>0.0004197648443002855</v>
+        <v>0.002395695128676767</v>
       </c>
       <c r="E11">
-        <v>0.09280937212924556</v>
+        <v>0.142464878816071</v>
       </c>
       <c r="F11">
-        <v>5.622709394838978</v>
+        <v>6.894433580057239</v>
       </c>
       <c r="G11">
-        <v>0.0007913715080367645</v>
+        <v>0.002707712990919536</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2840524275432159</v>
+        <v>0.4159357909016137</v>
       </c>
       <c r="K11">
-        <v>11.62547720474191</v>
+        <v>7.991563080193544</v>
       </c>
       <c r="L11">
-        <v>0.04574232308308979</v>
+        <v>0.1072972277908626</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.218630027463036</v>
+        <v>2.935619136038241</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3705970914244858</v>
+        <v>0.398615743334517</v>
       </c>
       <c r="D12">
-        <v>0.0004552243835567182</v>
+        <v>0.002412942222026704</v>
       </c>
       <c r="E12">
-        <v>0.09463074263895521</v>
+        <v>0.1426461725416281</v>
       </c>
       <c r="F12">
-        <v>5.738097327100917</v>
+        <v>6.906794850903168</v>
       </c>
       <c r="G12">
-        <v>0.0007876214649061968</v>
+        <v>0.002705838665998261</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2893855632119795</v>
+        <v>0.4163750027692288</v>
       </c>
       <c r="K12">
-        <v>11.94667605257081</v>
+        <v>8.048830570198049</v>
       </c>
       <c r="L12">
-        <v>0.04631988766746176</v>
+        <v>0.107287804762553</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.203273794574073</v>
+        <v>2.929360706855249</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3687535846867149</v>
+        <v>0.3983561491439218</v>
       </c>
       <c r="D13">
-        <v>0.0004472215035522531</v>
+        <v>0.002409225958358352</v>
       </c>
       <c r="E13">
-        <v>0.09423644495206318</v>
+        <v>0.1426067324659144</v>
       </c>
       <c r="F13">
-        <v>5.713063084604329</v>
+        <v>6.904108873673607</v>
       </c>
       <c r="G13">
-        <v>0.0007884296510999683</v>
+        <v>0.002706240811987731</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.288228820492904</v>
+        <v>0.4162791312122778</v>
       </c>
       <c r="K13">
-        <v>11.87718130756821</v>
+        <v>8.036466425641038</v>
       </c>
       <c r="L13">
-        <v>0.0461948217960142</v>
+        <v>0.1072896101495218</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.206552050633562</v>
+        <v>2.930702447868399</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3627772423579074</v>
+        <v>0.3975145647106046</v>
       </c>
       <c r="D14">
-        <v>0.000422519928969578</v>
+        <v>0.002397113261602968</v>
       </c>
       <c r="E14">
-        <v>0.09295831218212314</v>
+        <v>0.1424796158815447</v>
       </c>
       <c r="F14">
-        <v>5.632120823177047</v>
+        <v>6.895439850145323</v>
       </c>
       <c r="G14">
-        <v>0.0007910632218746188</v>
+        <v>0.002707558102247139</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2844875572616985</v>
+        <v>0.4159713487992178</v>
       </c>
       <c r="K14">
-        <v>11.65176069591365</v>
+        <v>7.996260746712778</v>
       </c>
       <c r="L14">
-        <v>0.0457895376990578</v>
+        <v>0.1072963515828285</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.217353726059116</v>
+        <v>2.93510149294859</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3591433578623651</v>
+        <v>0.3970029160037427</v>
       </c>
       <c r="D15">
-        <v>0.0004084293016193286</v>
+        <v>0.002389698996801748</v>
       </c>
       <c r="E15">
-        <v>0.09218124477162348</v>
+        <v>0.1424029103525335</v>
       </c>
       <c r="F15">
-        <v>5.583066315895877</v>
+        <v>6.890199314472341</v>
       </c>
       <c r="G15">
-        <v>0.0007926749239206554</v>
+        <v>0.002708369444398856</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2822192854695516</v>
+        <v>0.4157865670735532</v>
       </c>
       <c r="K15">
-        <v>11.51459505009592</v>
+        <v>7.971722999839756</v>
       </c>
       <c r="L15">
-        <v>0.04554323570581076</v>
+        <v>0.107301137092179</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.224053468019946</v>
+        <v>2.937813953160159</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3387038759122163</v>
+        <v>0.3941297041510552</v>
       </c>
       <c r="D16">
-        <v>0.0003422981370135858</v>
+        <v>0.002347283306229908</v>
       </c>
       <c r="E16">
-        <v>0.08781217459319635</v>
+        <v>0.1419810664767667</v>
       </c>
       <c r="F16">
-        <v>5.309499572554358</v>
+        <v>6.86122997387389</v>
       </c>
       <c r="G16">
-        <v>0.0008018958981530058</v>
+        <v>0.002713087504692961</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2695569379399814</v>
+        <v>0.414784935364338</v>
       </c>
       <c r="K16">
-        <v>10.74157474219066</v>
+        <v>7.832472494920182</v>
       </c>
       <c r="L16">
-        <v>0.04416009803338383</v>
+        <v>0.1073386271200256</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.263664363945225</v>
+        <v>2.953632040439601</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3264820303667477</v>
+        <v>0.3924194683535518</v>
       </c>
       <c r="D17">
-        <v>0.0003134524022070373</v>
+        <v>0.002321321004453925</v>
       </c>
       <c r="E17">
-        <v>0.08520144979551603</v>
+        <v>0.1417380844192557</v>
       </c>
       <c r="F17">
-        <v>5.147899219685115</v>
+        <v>6.844402605514773</v>
       </c>
       <c r="G17">
-        <v>0.0008075463298734199</v>
+        <v>0.002716043262195485</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2620668545338276</v>
+        <v>0.4142214628320886</v>
       </c>
       <c r="K17">
-        <v>10.27801472675566</v>
+        <v>7.748260098480102</v>
       </c>
       <c r="L17">
-        <v>0.04333532297253484</v>
+        <v>0.107370617851771</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.288989006584089</v>
+        <v>2.963579881014184</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3195591699226839</v>
+        <v>0.3914549919966248</v>
       </c>
       <c r="D18">
-        <v>0.0003006902018078961</v>
+        <v>0.002306407168338076</v>
       </c>
       <c r="E18">
-        <v>0.08372340052776295</v>
+        <v>0.141604132068931</v>
       </c>
       <c r="F18">
-        <v>5.057050584743166</v>
+        <v>6.835069708845822</v>
       </c>
       <c r="G18">
-        <v>0.0008107965978765286</v>
+        <v>0.002717765963924331</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2578526951823221</v>
+        <v>0.4139160646739697</v>
       </c>
       <c r="K18">
-        <v>10.01495301321921</v>
+        <v>7.700267234585908</v>
       </c>
       <c r="L18">
-        <v>0.04286908889231356</v>
+        <v>0.1073923263829322</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.30390892458044</v>
+        <v>2.969391031084726</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3172326935628291</v>
+        <v>0.3911317312428366</v>
       </c>
       <c r="D19">
-        <v>0.0002969850184197931</v>
+        <v>0.002301360633360616</v>
       </c>
       <c r="E19">
-        <v>0.08322683005535225</v>
+        <v>0.1415597746717197</v>
       </c>
       <c r="F19">
-        <v>5.026634789293581</v>
+        <v>6.831969013093499</v>
       </c>
       <c r="G19">
-        <v>0.0008118973645666941</v>
+        <v>0.002718353134176758</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2564412636457973</v>
+        <v>0.413815869044214</v>
       </c>
       <c r="K19">
-        <v>9.926466007579677</v>
+        <v>7.684093724937554</v>
       </c>
       <c r="L19">
-        <v>0.04271258023852909</v>
+        <v>0.1074002450935794</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.309019322463485</v>
+        <v>2.971373921398779</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3277718026666889</v>
+        <v>0.3925995370984765</v>
       </c>
       <c r="D20">
-        <v>0.0003161166345977406</v>
+        <v>0.00232408271632556</v>
       </c>
       <c r="E20">
-        <v>0.08547688371831086</v>
+        <v>0.1417633494433268</v>
       </c>
       <c r="F20">
-        <v>5.1648805302695</v>
+        <v>6.846158093653543</v>
       </c>
       <c r="G20">
-        <v>0.0008069448580048793</v>
+        <v>0.002715726276394908</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2628542893438208</v>
+        <v>0.41427950945031</v>
       </c>
       <c r="K20">
-        <v>10.32698488041854</v>
+        <v>7.757178667405299</v>
       </c>
       <c r="L20">
-        <v>0.04342226551921158</v>
+        <v>0.1073668700743866</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.286256047344082</v>
+        <v>2.96251165693289</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3645269896827585</v>
+        <v>0.3977609566796332</v>
       </c>
       <c r="D21">
-        <v>0.0004295553568920418</v>
+        <v>0.00240066997425048</v>
       </c>
       <c r="E21">
-        <v>0.09333250342083588</v>
+        <v>0.1425167119514583</v>
       </c>
       <c r="F21">
-        <v>5.655784872048145</v>
+        <v>6.897971663127635</v>
       </c>
       <c r="G21">
-        <v>0.0007902899950992888</v>
+        <v>0.002707170252361146</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2855815341778509</v>
+        <v>0.4160609714760426</v>
       </c>
       <c r="K21">
-        <v>11.71777999011471</v>
+        <v>8.008051488489059</v>
       </c>
       <c r="L21">
-        <v>0.04590817010223347</v>
+        <v>0.1072942347323931</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.214163478265846</v>
+        <v>2.933805651306599</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3897210542957055</v>
+        <v>0.4013062586769252</v>
       </c>
       <c r="D22">
-        <v>0.0005488943110041333</v>
+        <v>0.002450946349870087</v>
       </c>
       <c r="E22">
-        <v>0.0987218248656454</v>
+        <v>0.1430608537626021</v>
       </c>
       <c r="F22">
-        <v>5.999594115049319</v>
+        <v>6.934941593882598</v>
       </c>
       <c r="G22">
-        <v>0.0007793480655318758</v>
+        <v>0.00270177838508513</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3014579360887382</v>
+        <v>0.4173927067200935</v>
       </c>
       <c r="K22">
-        <v>12.66653863681358</v>
+        <v>8.176006962529073</v>
       </c>
       <c r="L22">
-        <v>0.04761838420451525</v>
+        <v>0.1072761429409006</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.170716661684622</v>
+        <v>2.915845945049128</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3761552239248545</v>
+        <v>0.3993982757971821</v>
       </c>
       <c r="D23">
-        <v>0.0004804459408420669</v>
+        <v>0.002424089925329831</v>
       </c>
       <c r="E23">
-        <v>0.0958196308012127</v>
+        <v>0.1427656930421399</v>
       </c>
       <c r="F23">
-        <v>5.813761721835903</v>
+        <v>6.914924409588878</v>
       </c>
       <c r="G23">
-        <v>0.0007851964304006561</v>
+        <v>0.002704637900384943</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.292880674281534</v>
+        <v>0.4166665658089244</v>
       </c>
       <c r="K23">
-        <v>12.15608987775113</v>
+        <v>8.085998252993477</v>
       </c>
       <c r="L23">
-        <v>0.04669708455294952</v>
+        <v>0.1072831144301318</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.193540910808125</v>
+        <v>2.925357806614073</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3271883760641003</v>
+        <v>0.3925180695929953</v>
       </c>
       <c r="D24">
-        <v>0.0003149003440787723</v>
+        <v>0.002322834108602567</v>
       </c>
       <c r="E24">
-        <v>0.08535228920694848</v>
+        <v>0.1417519092440926</v>
       </c>
       <c r="F24">
-        <v>5.157196915040316</v>
+        <v>6.845363374444162</v>
       </c>
       <c r="G24">
-        <v>0.0008072167774509169</v>
+        <v>0.002715869512756337</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2624980054549724</v>
+        <v>0.4142532088066133</v>
       </c>
       <c r="K24">
-        <v>10.30483482598493</v>
+        <v>7.753145268538105</v>
       </c>
       <c r="L24">
-        <v>0.04338293419515793</v>
+        <v>0.1073685541130729</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.287490500903345</v>
+        <v>2.962994314524394</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2783721917519841</v>
+        <v>0.38583036435449</v>
       </c>
       <c r="D25">
-        <v>0.0002791960847972064</v>
+        <v>0.002214311396196322</v>
       </c>
       <c r="E25">
-        <v>0.07494596858418845</v>
+        <v>0.1408802492589416</v>
       </c>
       <c r="F25">
-        <v>4.527698233865266</v>
+        <v>6.783533565915803</v>
       </c>
       <c r="G25">
-        <v>0.0008310023725917063</v>
+        <v>0.002728850679703221</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2332489793353645</v>
+        <v>0.4123642637706197</v>
       </c>
       <c r="K25">
-        <v>8.441344157434798</v>
+        <v>7.411054544607964</v>
       </c>
       <c r="L25">
-        <v>0.04011506625476713</v>
+        <v>0.107587248353088</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.402174465867731</v>
+        <v>3.007007127518932</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3815305756956633</v>
+        <v>0.2449500452167399</v>
       </c>
       <c r="D2">
-        <v>0.002134724172690561</v>
+        <v>0.0003330007964934545</v>
       </c>
       <c r="E2">
-        <v>0.1404285716962121</v>
+        <v>0.06785534920148706</v>
       </c>
       <c r="F2">
-        <v>6.749199704656434</v>
+        <v>4.114218956923821</v>
       </c>
       <c r="G2">
-        <v>0.002739163467331122</v>
+        <v>0.0008487938701542326</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.411582027710871</v>
+        <v>0.2139736236605003</v>
       </c>
       <c r="K2">
-        <v>7.17345529442855</v>
+        <v>7.150620305818734</v>
       </c>
       <c r="L2">
-        <v>0.1078575182435983</v>
+        <v>0.03791890956605926</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.042330431169951</v>
+        <v>1.49600281363491</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3790029559230987</v>
+        <v>0.2235086946663927</v>
       </c>
       <c r="D3">
-        <v>0.002080854931796772</v>
+        <v>0.0004037559251730549</v>
       </c>
       <c r="E3">
-        <v>0.1402407805228627</v>
+        <v>0.06333181590959924</v>
       </c>
       <c r="F3">
-        <v>6.732833995454939</v>
+        <v>3.858260065101689</v>
       </c>
       <c r="G3">
-        <v>0.002746628382989906</v>
+        <v>0.0008611239254649072</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4114288678814688</v>
+        <v>0.2020186213615816</v>
       </c>
       <c r="K3">
-        <v>7.021203082432805</v>
+        <v>6.313524261445139</v>
       </c>
       <c r="L3">
-        <v>0.1081090689335014</v>
+        <v>0.0365401734656885</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.068078590658907</v>
+        <v>1.564637220814092</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3776406817193703</v>
+        <v>0.2108402048867362</v>
       </c>
       <c r="D4">
-        <v>0.002047772904118395</v>
+        <v>0.0004600707474642363</v>
       </c>
       <c r="E4">
-        <v>0.1401837708317082</v>
+        <v>0.06067285955128554</v>
       </c>
       <c r="F4">
-        <v>6.726165882364285</v>
+        <v>3.711164906033048</v>
       </c>
       <c r="G4">
-        <v>0.002751448216430822</v>
+        <v>0.0008688564317845365</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4115199674684575</v>
+        <v>0.1951420929355905</v>
       </c>
       <c r="K4">
-        <v>6.932005017229812</v>
+        <v>5.814519295162711</v>
       </c>
       <c r="L4">
-        <v>0.1082973440956891</v>
+        <v>0.03574183517834939</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.084777013009628</v>
+        <v>1.609047977717452</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3771331437783374</v>
+        <v>0.2057895078090723</v>
       </c>
       <c r="D5">
-        <v>0.002034284862578062</v>
+        <v>0.0004857465889940293</v>
       </c>
       <c r="E5">
-        <v>0.140175195025467</v>
+        <v>0.05961643364517144</v>
       </c>
       <c r="F5">
-        <v>6.724295434048685</v>
+        <v>3.653504398097908</v>
       </c>
       <c r="G5">
-        <v>0.002753471997550418</v>
+        <v>0.0008720517655848025</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4116035465865906</v>
+        <v>0.1924456937704377</v>
       </c>
       <c r="K5">
-        <v>6.896728821593911</v>
+        <v>5.614467828164379</v>
       </c>
       <c r="L5">
-        <v>0.1083825882390848</v>
+        <v>0.03542786565277467</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.09180473124006</v>
+        <v>1.627687325937075</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3770517395554407</v>
+        <v>0.2049572413133802</v>
       </c>
       <c r="D6">
-        <v>0.002032044621001372</v>
+        <v>0.0004901612663825716</v>
       </c>
       <c r="E6">
-        <v>0.140174656157722</v>
+        <v>0.059442579966138</v>
       </c>
       <c r="F6">
-        <v>6.724035903807106</v>
+        <v>3.644060969080329</v>
       </c>
       <c r="G6">
-        <v>0.002753811654914165</v>
+        <v>0.0008725851204201703</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4116202277708609</v>
+        <v>0.1920040574543336</v>
       </c>
       <c r="K6">
-        <v>6.890935887679234</v>
+        <v>5.581435826943959</v>
       </c>
       <c r="L6">
-        <v>0.1083972580483383</v>
+        <v>0.03537639659761993</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.092985129510303</v>
+        <v>1.63081430274358</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3776336442836055</v>
+        <v>0.2107716529279315</v>
       </c>
       <c r="D7">
-        <v>0.002047591033070839</v>
+        <v>0.000460406598026708</v>
       </c>
       <c r="E7">
-        <v>0.1401835958356052</v>
+        <v>0.06065850574702836</v>
       </c>
       <c r="F7">
-        <v>6.726137232075445</v>
+        <v>3.710378346098452</v>
       </c>
       <c r="G7">
-        <v>0.002751475267943171</v>
+        <v>0.0008688993414253592</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4115209066782768</v>
+        <v>0.1951053132349045</v>
       </c>
       <c r="K7">
-        <v>6.931524932928369</v>
+        <v>5.811808563782165</v>
       </c>
       <c r="L7">
-        <v>0.1082984592080045</v>
+        <v>0.03573755582886662</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.084870889176734</v>
+        <v>1.609297197402434</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3806196179695576</v>
+        <v>0.2374456805442975</v>
       </c>
       <c r="D8">
-        <v>0.002116148017130115</v>
+        <v>0.0003543944409902799</v>
       </c>
       <c r="E8">
-        <v>0.1403517199614086</v>
+        <v>0.06626932945032493</v>
       </c>
       <c r="F8">
-        <v>6.742853224995201</v>
+        <v>4.023716729027143</v>
       </c>
       <c r="G8">
-        <v>0.002741688455043943</v>
+        <v>0.0008530139727030758</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4114907303690174</v>
+        <v>0.2097483646283465</v>
       </c>
       <c r="K8">
-        <v>7.120066265132948</v>
+        <v>6.858582550770507</v>
       </c>
       <c r="L8">
-        <v>0.1079372423301876</v>
+        <v>0.03743302815027505</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.051023559922015</v>
+        <v>1.519178547042415</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3879857178116595</v>
+        <v>0.2943698969332047</v>
       </c>
       <c r="D9">
-        <v>0.002250799958516847</v>
+        <v>0.0002763437585375783</v>
       </c>
       <c r="E9">
-        <v>0.141144294084512</v>
+        <v>0.07835138530818853</v>
       </c>
       <c r="F9">
-        <v>6.802611928388359</v>
+        <v>4.730933054995234</v>
       </c>
       <c r="G9">
-        <v>0.00272436136347383</v>
+        <v>0.0008229617329398306</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4129056531503181</v>
+        <v>0.2427049957623808</v>
       </c>
       <c r="K9">
-        <v>7.524051169166739</v>
+        <v>9.054456848674818</v>
       </c>
       <c r="L9">
-        <v>0.1074966405494067</v>
+        <v>0.04118003721117347</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.991726843881963</v>
+        <v>1.361962309387366</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3943274597363882</v>
+        <v>0.3401136311523487</v>
       </c>
       <c r="D10">
-        <v>0.002350248536267863</v>
+        <v>0.0003461419187602566</v>
       </c>
       <c r="E10">
-        <v>0.1420095792312104</v>
+        <v>0.08811341035979936</v>
       </c>
       <c r="F10">
-        <v>6.863197038947419</v>
+        <v>5.328236984811554</v>
       </c>
       <c r="G10">
-        <v>0.002712753293287255</v>
+        <v>0.0008012509996520133</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4148517681236825</v>
+        <v>0.2704249115914479</v>
       </c>
       <c r="K10">
-        <v>7.842142006270421</v>
+        <v>10.79497812182791</v>
       </c>
       <c r="L10">
-        <v>0.1073354247605955</v>
+        <v>0.04425535552193338</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.952509055831285</v>
+        <v>1.260824186798402</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3974164937848741</v>
+        <v>0.3620807652607709</v>
       </c>
       <c r="D11">
-        <v>0.002395695128676767</v>
+        <v>0.000419764844128423</v>
       </c>
       <c r="E11">
-        <v>0.142464878816071</v>
+        <v>0.09280937212924201</v>
       </c>
       <c r="F11">
-        <v>6.894433580057239</v>
+        <v>5.622709394838921</v>
       </c>
       <c r="G11">
-        <v>0.002707712990919536</v>
+        <v>0.0007913715078387007</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4159357909016137</v>
+        <v>0.2840524275431733</v>
       </c>
       <c r="K11">
-        <v>7.991563080193544</v>
+        <v>11.62547720474191</v>
       </c>
       <c r="L11">
-        <v>0.1072972277908626</v>
+        <v>0.04574232308299031</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.935619136038241</v>
+        <v>1.218630027463021</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.398615743334517</v>
+        <v>0.3705970914247985</v>
       </c>
       <c r="D12">
-        <v>0.002412942222026704</v>
+        <v>0.0004552243833590985</v>
       </c>
       <c r="E12">
-        <v>0.1426461725416281</v>
+        <v>0.09463074263896587</v>
       </c>
       <c r="F12">
-        <v>6.906794850903168</v>
+        <v>5.738097327101002</v>
       </c>
       <c r="G12">
-        <v>0.002705838665998261</v>
+        <v>0.0007876214648164858</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4163750027692288</v>
+        <v>0.2893855632119369</v>
       </c>
       <c r="K12">
-        <v>8.048830570198049</v>
+        <v>11.94667605257098</v>
       </c>
       <c r="L12">
-        <v>0.107287804762553</v>
+        <v>0.04631988766739426</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.929360706855249</v>
+        <v>1.203273794574073</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3983561491439218</v>
+        <v>0.3687535846873118</v>
       </c>
       <c r="D13">
-        <v>0.002409225958358352</v>
+        <v>0.00044722150353671</v>
       </c>
       <c r="E13">
-        <v>0.1426067324659144</v>
+        <v>0.0942364449520916</v>
       </c>
       <c r="F13">
-        <v>6.904108873673607</v>
+        <v>5.713063084604357</v>
       </c>
       <c r="G13">
-        <v>0.002706240811987731</v>
+        <v>0.0007884296511542327</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4162791312122778</v>
+        <v>0.288228820492975</v>
       </c>
       <c r="K13">
-        <v>8.036466425641038</v>
+        <v>11.87718130756821</v>
       </c>
       <c r="L13">
-        <v>0.1072896101495218</v>
+        <v>0.04619482179598222</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.930702447868399</v>
+        <v>1.206552050633547</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3975145647106046</v>
+        <v>0.3627772423575095</v>
       </c>
       <c r="D14">
-        <v>0.002397113261602968</v>
+        <v>0.0004225199293683701</v>
       </c>
       <c r="E14">
-        <v>0.1424796158815447</v>
+        <v>0.09295831218211958</v>
       </c>
       <c r="F14">
-        <v>6.895439850145323</v>
+        <v>5.632120823177075</v>
       </c>
       <c r="G14">
-        <v>0.002707558102247139</v>
+        <v>0.000791063221959156</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4159713487992178</v>
+        <v>0.2844875572615848</v>
       </c>
       <c r="K14">
-        <v>7.996260746712778</v>
+        <v>11.65176069591359</v>
       </c>
       <c r="L14">
-        <v>0.1072963515828285</v>
+        <v>0.04578953769906136</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.93510149294859</v>
+        <v>1.217353726059116</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3970029160037427</v>
+        <v>0.359143357862223</v>
       </c>
       <c r="D15">
-        <v>0.002389698996801748</v>
+        <v>0.0004084293018222773</v>
       </c>
       <c r="E15">
-        <v>0.1424029103525335</v>
+        <v>0.09218124477160572</v>
       </c>
       <c r="F15">
-        <v>6.890199314472341</v>
+        <v>5.583066315895906</v>
       </c>
       <c r="G15">
-        <v>0.002708369444398856</v>
+        <v>0.0007926749238591185</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4157865670735532</v>
+        <v>0.2822192854695089</v>
       </c>
       <c r="K15">
-        <v>7.971722999839756</v>
+        <v>11.51459505009592</v>
       </c>
       <c r="L15">
-        <v>0.107301137092179</v>
+        <v>0.04554323570575036</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.937813953160159</v>
+        <v>1.224053468019875</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3941297041510552</v>
+        <v>0.3387038759119037</v>
       </c>
       <c r="D16">
-        <v>0.002347283306229908</v>
+        <v>0.0003422981367942057</v>
       </c>
       <c r="E16">
-        <v>0.1419810664767667</v>
+        <v>0.08781217459323187</v>
       </c>
       <c r="F16">
-        <v>6.86122997387389</v>
+        <v>5.309499572554358</v>
       </c>
       <c r="G16">
-        <v>0.002713087504692961</v>
+        <v>0.0008018958981309695</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.414784935364338</v>
+        <v>0.2695569379400951</v>
       </c>
       <c r="K16">
-        <v>7.832472494920182</v>
+        <v>10.74157474219055</v>
       </c>
       <c r="L16">
-        <v>0.1073386271200256</v>
+        <v>0.04416009803341581</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.953632040439601</v>
+        <v>1.263664363945324</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3924194683535518</v>
+        <v>0.3264820303662361</v>
       </c>
       <c r="D17">
-        <v>0.002321321004453925</v>
+        <v>0.0003134524019583473</v>
       </c>
       <c r="E17">
-        <v>0.1417380844192557</v>
+        <v>0.08520144979550892</v>
       </c>
       <c r="F17">
-        <v>6.844402605514773</v>
+        <v>5.147899219685087</v>
       </c>
       <c r="G17">
-        <v>0.002716043262195485</v>
+        <v>0.0008075463299278256</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4142214628320886</v>
+        <v>0.2620668545338702</v>
       </c>
       <c r="K17">
-        <v>7.748260098480102</v>
+        <v>10.27801472675566</v>
       </c>
       <c r="L17">
-        <v>0.107370617851771</v>
+        <v>0.04333532297257392</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.963579881014184</v>
+        <v>1.288989006584089</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3914549919966248</v>
+        <v>0.3195591699226839</v>
       </c>
       <c r="D18">
-        <v>0.002306407168338076</v>
+        <v>0.0003006902015640911</v>
       </c>
       <c r="E18">
-        <v>0.141604132068931</v>
+        <v>0.08372340052775584</v>
       </c>
       <c r="F18">
-        <v>6.835069708845822</v>
+        <v>5.057050584743166</v>
       </c>
       <c r="G18">
-        <v>0.002717765963924331</v>
+        <v>0.0008107965977585328</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4139160646739697</v>
+        <v>0.2578526951822084</v>
       </c>
       <c r="K18">
-        <v>7.700267234585908</v>
+        <v>10.01495301321916</v>
       </c>
       <c r="L18">
-        <v>0.1073923263829322</v>
+        <v>0.04286908889238106</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.969391031084726</v>
+        <v>1.303908924580384</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3911317312428366</v>
+        <v>0.3172326935624881</v>
       </c>
       <c r="D19">
-        <v>0.002301360633360616</v>
+        <v>0.0002969850181839817</v>
       </c>
       <c r="E19">
-        <v>0.1415597746717197</v>
+        <v>0.08322683005534515</v>
       </c>
       <c r="F19">
-        <v>6.831969013093499</v>
+        <v>5.026634789293496</v>
       </c>
       <c r="G19">
-        <v>0.002718353134176758</v>
+        <v>0.0008118973645295494</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.413815869044214</v>
+        <v>0.2564412636454563</v>
       </c>
       <c r="K19">
-        <v>7.684093724937554</v>
+        <v>9.926466007579677</v>
       </c>
       <c r="L19">
-        <v>0.1074002450935794</v>
+        <v>0.04271258023836211</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.971373921398779</v>
+        <v>1.309019322463456</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3925995370984765</v>
+        <v>0.327771802667371</v>
       </c>
       <c r="D20">
-        <v>0.00232408271632556</v>
+        <v>0.0003161166345932998</v>
       </c>
       <c r="E20">
-        <v>0.1417633494433268</v>
+        <v>0.08547688371826467</v>
       </c>
       <c r="F20">
-        <v>6.846158093653543</v>
+        <v>5.164880530269556</v>
       </c>
       <c r="G20">
-        <v>0.002715726276394908</v>
+        <v>0.0008069448580044003</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.41427950945031</v>
+        <v>0.2628542893439203</v>
       </c>
       <c r="K20">
-        <v>7.757178667405299</v>
+        <v>10.32698488041854</v>
       </c>
       <c r="L20">
-        <v>0.1073668700743866</v>
+        <v>0.0434222655193004</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.96251165693289</v>
+        <v>1.28625604734404</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3977609566796332</v>
+        <v>0.3645269896829291</v>
       </c>
       <c r="D21">
-        <v>0.00240066997425048</v>
+        <v>0.00042955535688316</v>
       </c>
       <c r="E21">
-        <v>0.1425167119514583</v>
+        <v>0.09333250342078969</v>
       </c>
       <c r="F21">
-        <v>6.897971663127635</v>
+        <v>5.655784872048201</v>
       </c>
       <c r="G21">
-        <v>0.002707170252361146</v>
+        <v>0.0007902899952657877</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4160609714760426</v>
+        <v>0.2855815341779504</v>
       </c>
       <c r="K21">
-        <v>8.008051488489059</v>
+        <v>11.71777999011476</v>
       </c>
       <c r="L21">
-        <v>0.1072942347323931</v>
+        <v>0.04590817010232584</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.933805651306599</v>
+        <v>1.214163478265874</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4013062586769252</v>
+        <v>0.389721054295677</v>
       </c>
       <c r="D22">
-        <v>0.002450946349870087</v>
+        <v>0.0005488943111600086</v>
       </c>
       <c r="E22">
-        <v>0.1430608537626021</v>
+        <v>0.09872182486559211</v>
       </c>
       <c r="F22">
-        <v>6.934941593882598</v>
+        <v>5.999594115049319</v>
       </c>
       <c r="G22">
-        <v>0.00270177838508513</v>
+        <v>0.0007793480652698778</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4173927067200935</v>
+        <v>0.3014579360887097</v>
       </c>
       <c r="K22">
-        <v>8.176006962529073</v>
+        <v>12.6665386368137</v>
       </c>
       <c r="L22">
-        <v>0.1072761429409006</v>
+        <v>0.04761838420467512</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.915845945049128</v>
+        <v>1.170716661684622</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3993982757971821</v>
+        <v>0.3761552239246271</v>
       </c>
       <c r="D23">
-        <v>0.002424089925329831</v>
+        <v>0.0004804459413114692</v>
       </c>
       <c r="E23">
-        <v>0.1427656930421399</v>
+        <v>0.09581963080121625</v>
       </c>
       <c r="F23">
-        <v>6.914924409588878</v>
+        <v>5.813761721835931</v>
       </c>
       <c r="G23">
-        <v>0.002704637900384943</v>
+        <v>0.0007851964304881331</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4166665658089244</v>
+        <v>0.2928806742816619</v>
       </c>
       <c r="K23">
-        <v>8.085998252993477</v>
+        <v>12.15608987775113</v>
       </c>
       <c r="L23">
-        <v>0.1072831144301318</v>
+        <v>0.04669708455299926</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.925357806614073</v>
+        <v>1.19354091080821</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3925180695929953</v>
+        <v>0.3271883760636456</v>
       </c>
       <c r="D24">
-        <v>0.002322834108602567</v>
+        <v>0.000314900344301261</v>
       </c>
       <c r="E24">
-        <v>0.1417519092440926</v>
+        <v>0.08535228920694138</v>
       </c>
       <c r="F24">
-        <v>6.845363374444162</v>
+        <v>5.157196915040259</v>
       </c>
       <c r="G24">
-        <v>0.002715869512756337</v>
+        <v>0.0008072167773116869</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4142532088066133</v>
+        <v>0.2624980054550576</v>
       </c>
       <c r="K24">
-        <v>7.753145268538105</v>
+        <v>10.30483482598504</v>
       </c>
       <c r="L24">
-        <v>0.1073685541130729</v>
+        <v>0.04338293419512951</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.962994314524394</v>
+        <v>1.287490500903388</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.38583036435449</v>
+        <v>0.2783721917522115</v>
       </c>
       <c r="D25">
-        <v>0.002214311396196322</v>
+        <v>0.0002791960852630559</v>
       </c>
       <c r="E25">
-        <v>0.1408802492589416</v>
+        <v>0.07494596858423463</v>
       </c>
       <c r="F25">
-        <v>6.783533565915803</v>
+        <v>4.527698233865237</v>
       </c>
       <c r="G25">
-        <v>0.002728850679703221</v>
+        <v>0.000831002372591106</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4123642637706197</v>
+        <v>0.2332489793354426</v>
       </c>
       <c r="K25">
-        <v>7.411054544607964</v>
+        <v>8.441344157434855</v>
       </c>
       <c r="L25">
-        <v>0.107587248353088</v>
+        <v>0.04011506625487016</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.007007127518932</v>
+        <v>1.402174465867745</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2449500452167399</v>
+        <v>0.1482004030351902</v>
       </c>
       <c r="D2">
-        <v>0.0003330007964934545</v>
+        <v>0.04698418370389135</v>
       </c>
       <c r="E2">
-        <v>0.06785534920148706</v>
+        <v>0.06686695927754815</v>
       </c>
       <c r="F2">
-        <v>4.114218956923821</v>
+        <v>2.495580400853967</v>
       </c>
       <c r="G2">
-        <v>0.0008487938701542326</v>
+        <v>2.72270836135894</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.004407194756222532</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01637092321027822</v>
       </c>
       <c r="J2">
-        <v>0.2139736236605003</v>
+        <v>1.470158585577053</v>
       </c>
       <c r="K2">
-        <v>7.150620305818734</v>
+        <v>1.983372109685774</v>
       </c>
       <c r="L2">
-        <v>0.03791890956605926</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.49600281363491</v>
+        <v>0.06373159770386749</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>3.846140034735669</v>
+      </c>
+      <c r="P2">
+        <v>3.50989317629157</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2235086946663927</v>
+        <v>0.135503958174013</v>
       </c>
       <c r="D3">
-        <v>0.0004037559251730549</v>
+        <v>0.04344712010884422</v>
       </c>
       <c r="E3">
-        <v>0.06333181590959924</v>
+        <v>0.06220599561161322</v>
       </c>
       <c r="F3">
-        <v>3.858260065101689</v>
+        <v>2.205541570487284</v>
       </c>
       <c r="G3">
-        <v>0.0008611239254649072</v>
+        <v>2.398205393002542</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001867411702612065</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01006832925566181</v>
       </c>
       <c r="J3">
-        <v>0.2020186213615816</v>
+        <v>1.318211429017026</v>
       </c>
       <c r="K3">
-        <v>6.313524261445139</v>
+        <v>1.766994608320374</v>
       </c>
       <c r="L3">
-        <v>0.0365401734656885</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.564637220814092</v>
+        <v>0.06008137943163838</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>3.354381996416649</v>
+      </c>
+      <c r="P3">
+        <v>3.147127494245126</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2108402048867362</v>
+        <v>0.1278189322347956</v>
       </c>
       <c r="D4">
-        <v>0.0004600707474642363</v>
+        <v>0.04124141343814713</v>
       </c>
       <c r="E4">
-        <v>0.06067285955128554</v>
+        <v>0.05933975118949242</v>
       </c>
       <c r="F4">
-        <v>3.711164906033048</v>
+        <v>2.028921279271984</v>
       </c>
       <c r="G4">
-        <v>0.0008688564317845365</v>
+        <v>2.200371770951477</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0008175100694105542</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.006914140671545166</v>
       </c>
       <c r="J4">
-        <v>0.1951420929355905</v>
+        <v>1.225696584172908</v>
       </c>
       <c r="K4">
-        <v>5.814519295162711</v>
+        <v>1.63483158860906</v>
       </c>
       <c r="L4">
-        <v>0.03574183517834939</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.609047977717452</v>
+        <v>0.05778344019476123</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>3.051523688828922</v>
+      </c>
+      <c r="P4">
+        <v>2.924841309564215</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2057895078090723</v>
+        <v>0.1247292932406143</v>
       </c>
       <c r="D5">
-        <v>0.0004857465889940293</v>
+        <v>0.04025098291896967</v>
       </c>
       <c r="E5">
-        <v>0.05961643364517144</v>
+        <v>0.0581636918386268</v>
       </c>
       <c r="F5">
-        <v>3.653504398097908</v>
+        <v>1.955304278862485</v>
       </c>
       <c r="G5">
-        <v>0.0008720517655848025</v>
+        <v>2.11766041842148</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0005050814503497758</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.005837371647530176</v>
       </c>
       <c r="J5">
-        <v>0.1924456937704377</v>
+        <v>1.186977048970817</v>
       </c>
       <c r="K5">
-        <v>5.614467828164379</v>
+        <v>1.579063020766313</v>
       </c>
       <c r="L5">
-        <v>0.03542786565277467</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.627687325937075</v>
+        <v>0.05678403938773968</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>2.926038475305148</v>
+      </c>
+      <c r="P5">
+        <v>2.835138880371574</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2049572413133802</v>
+        <v>0.1242460463208488</v>
       </c>
       <c r="D6">
-        <v>0.0004901612663825716</v>
+        <v>0.039985085956463</v>
       </c>
       <c r="E6">
-        <v>0.059442579966138</v>
+        <v>0.05796230856692386</v>
       </c>
       <c r="F6">
-        <v>3.644060969080329</v>
+        <v>1.940714088596835</v>
       </c>
       <c r="G6">
-        <v>0.0008725851204201703</v>
+        <v>2.101032289945493</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0004571778197468568</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.005728858569823636</v>
       </c>
       <c r="J6">
-        <v>0.1920040574543336</v>
+        <v>1.179110058917985</v>
       </c>
       <c r="K6">
-        <v>5.581435826943959</v>
+        <v>1.567311412878595</v>
       </c>
       <c r="L6">
-        <v>0.03537639659761993</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.63081430274358</v>
+        <v>0.05655858544559145</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>2.902963171509498</v>
+      </c>
+      <c r="P6">
+        <v>2.821200795407151</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2107716529279315</v>
+        <v>0.1278544238097741</v>
       </c>
       <c r="D7">
-        <v>0.000460406598026708</v>
+        <v>0.04095131545323838</v>
       </c>
       <c r="E7">
-        <v>0.06065850574702836</v>
+        <v>0.05930793499581899</v>
       </c>
       <c r="F7">
-        <v>3.710378346098452</v>
+        <v>2.021389625082961</v>
       </c>
       <c r="G7">
-        <v>0.0008688993414253592</v>
+        <v>2.191272011412167</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0008020038998222123</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.007043729467659077</v>
       </c>
       <c r="J7">
-        <v>0.1951053132349045</v>
+        <v>1.221206384975176</v>
       </c>
       <c r="K7">
-        <v>5.811808563782165</v>
+        <v>1.627225975484563</v>
       </c>
       <c r="L7">
-        <v>0.03573755582886662</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.609297197402434</v>
+        <v>0.05760941063915226</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>3.043733900996159</v>
+      </c>
+      <c r="P7">
+        <v>2.92624044818416</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2374456805442975</v>
+        <v>0.143894888404013</v>
       </c>
       <c r="D8">
-        <v>0.0003543944409902799</v>
+        <v>0.04540052844016174</v>
       </c>
       <c r="E8">
-        <v>0.06626932945032493</v>
+        <v>0.06523807190314201</v>
       </c>
       <c r="F8">
-        <v>4.023716729027143</v>
+        <v>2.386448401067355</v>
       </c>
       <c r="G8">
-        <v>0.0008530139727030758</v>
+        <v>2.599755685585734</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.00339057643935492</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01417578068374414</v>
       </c>
       <c r="J8">
-        <v>0.2097483646283465</v>
+        <v>1.412262000804532</v>
       </c>
       <c r="K8">
-        <v>6.858582550770507</v>
+        <v>1.899394962245793</v>
       </c>
       <c r="L8">
-        <v>0.03743302815027505</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.519178547042415</v>
+        <v>0.06227061520094246</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>3.668568408818899</v>
+      </c>
+      <c r="P8">
+        <v>3.38821577822722</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2943698969332047</v>
+        <v>0.1765006568092709</v>
       </c>
       <c r="D9">
-        <v>0.0002763437585375783</v>
+        <v>0.05438146078555661</v>
       </c>
       <c r="E9">
-        <v>0.07835138530818853</v>
+        <v>0.0769670215430498</v>
       </c>
       <c r="F9">
-        <v>4.730933054995234</v>
+        <v>3.129007273142292</v>
       </c>
       <c r="G9">
-        <v>0.0008229617329398306</v>
+        <v>3.430001398018675</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01305650582299378</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.03442208268770219</v>
       </c>
       <c r="J9">
-        <v>0.2427049957623808</v>
+        <v>1.801972252219002</v>
       </c>
       <c r="K9">
-        <v>9.054456848674818</v>
+        <v>2.45324382644452</v>
       </c>
       <c r="L9">
-        <v>0.04118003721117347</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.361962309387366</v>
+        <v>0.07128739758735136</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>4.898858186060664</v>
+      </c>
+      <c r="P9">
+        <v>4.293525616710866</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3401136311523487</v>
+        <v>0.2019512009984581</v>
       </c>
       <c r="D10">
-        <v>0.0003461419187602566</v>
+        <v>0.05941492415512784</v>
       </c>
       <c r="E10">
-        <v>0.08811341035979936</v>
+        <v>0.08683645171180565</v>
       </c>
       <c r="F10">
-        <v>5.328236984811554</v>
+        <v>3.653526613644516</v>
       </c>
       <c r="G10">
-        <v>0.0008012509996520133</v>
+        <v>4.011641109695091</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.02331715512754906</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.05384424456484638</v>
       </c>
       <c r="J10">
-        <v>0.2704249115914479</v>
+        <v>2.074531706792698</v>
       </c>
       <c r="K10">
-        <v>10.79497812182791</v>
+        <v>2.833840304075181</v>
       </c>
       <c r="L10">
-        <v>0.04425535552193338</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.260824186798402</v>
+        <v>0.08009943385982154</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>5.749138344329339</v>
+      </c>
+      <c r="P10">
+        <v>4.984131869869941</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3620807652607709</v>
+        <v>0.2165413914393213</v>
       </c>
       <c r="D11">
-        <v>0.000419764844128423</v>
+        <v>0.05053880877445494</v>
       </c>
       <c r="E11">
-        <v>0.09280937212924201</v>
+        <v>0.105985458514791</v>
       </c>
       <c r="F11">
-        <v>5.622709394838921</v>
+        <v>3.611478298323021</v>
       </c>
       <c r="G11">
-        <v>0.0007913715078387007</v>
+        <v>3.933689409338939</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04297797250212554</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.05966309400955971</v>
       </c>
       <c r="J11">
-        <v>0.2840524275431733</v>
+        <v>2.029089349454324</v>
       </c>
       <c r="K11">
-        <v>11.62547720474191</v>
+        <v>2.732374250991299</v>
       </c>
       <c r="L11">
-        <v>0.04574232308299031</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.218630027463021</v>
+        <v>0.117368174238436</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>5.702374515942012</v>
+      </c>
+      <c r="P11">
+        <v>5.489731272587221</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3705970914247985</v>
+        <v>0.2255752153166455</v>
       </c>
       <c r="D12">
-        <v>0.0004552243833590985</v>
+        <v>0.0432337831721803</v>
       </c>
       <c r="E12">
-        <v>0.09463074263896587</v>
+        <v>0.1274814655836174</v>
       </c>
       <c r="F12">
-        <v>5.738097327101002</v>
+        <v>3.474000512344759</v>
       </c>
       <c r="G12">
-        <v>0.0007876214648164858</v>
+        <v>3.757117237009169</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08093050043824235</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.06012735107891576</v>
       </c>
       <c r="J12">
-        <v>0.2893855632119369</v>
+        <v>1.938878210367108</v>
       </c>
       <c r="K12">
-        <v>11.94667605257098</v>
+        <v>2.578178404704786</v>
       </c>
       <c r="L12">
-        <v>0.04631988766739426</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.203273794574073</v>
+        <v>0.1643910727570699</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>5.491533031740602</v>
+      </c>
+      <c r="P12">
+        <v>5.774411918036094</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3687535846873118</v>
+        <v>0.230782453141984</v>
       </c>
       <c r="D13">
-        <v>0.00044722150353671</v>
+        <v>0.03634207431493408</v>
       </c>
       <c r="E13">
-        <v>0.0942364449520916</v>
+        <v>0.1516503609226341</v>
       </c>
       <c r="F13">
-        <v>5.713063084604357</v>
+        <v>3.245192867837829</v>
       </c>
       <c r="G13">
-        <v>0.0007884296511542327</v>
+        <v>3.482587500005451</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1344038150493532</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.05650153898521637</v>
       </c>
       <c r="J13">
-        <v>0.288228820492975</v>
+        <v>1.803067499647085</v>
       </c>
       <c r="K13">
-        <v>11.87718130756821</v>
+        <v>2.364570895272038</v>
       </c>
       <c r="L13">
-        <v>0.04619482179598222</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.206552050633547</v>
+        <v>0.2206361008064874</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>5.134915796092798</v>
+      </c>
+      <c r="P13">
+        <v>5.906566060613898</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3627772423575095</v>
+        <v>0.2331257137844247</v>
       </c>
       <c r="D14">
-        <v>0.0004225199293683701</v>
+        <v>0.03181380713207105</v>
       </c>
       <c r="E14">
-        <v>0.09295831218211958</v>
+        <v>0.170531214632792</v>
       </c>
       <c r="F14">
-        <v>5.632120823177075</v>
+        <v>3.043806912795475</v>
       </c>
       <c r="G14">
-        <v>0.000791063221959156</v>
+        <v>3.246367479443848</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1815876071982387</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.05232351963326565</v>
       </c>
       <c r="J14">
-        <v>0.2844875572615848</v>
+        <v>1.687434668852831</v>
       </c>
       <c r="K14">
-        <v>11.65176069591359</v>
+        <v>2.188374277131757</v>
       </c>
       <c r="L14">
-        <v>0.04578953769906136</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.217353726059116</v>
+        <v>0.2656881903662907</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>4.820253856141761</v>
+      </c>
+      <c r="P14">
+        <v>5.930500144029565</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.359143357862223</v>
+        <v>0.2327893559120326</v>
       </c>
       <c r="D15">
-        <v>0.0004084293018222773</v>
+        <v>0.03064862093164322</v>
       </c>
       <c r="E15">
-        <v>0.09218124477160572</v>
+        <v>0.1746897213248744</v>
       </c>
       <c r="F15">
-        <v>5.583066315895906</v>
+        <v>2.973585106807263</v>
       </c>
       <c r="G15">
-        <v>0.0007926749238591185</v>
+        <v>3.165754445186025</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1931638583679245</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.05052668123214499</v>
       </c>
       <c r="J15">
-        <v>0.2822192854695089</v>
+        <v>1.648483805105201</v>
       </c>
       <c r="K15">
-        <v>11.51459505009592</v>
+        <v>2.13075236248018</v>
       </c>
       <c r="L15">
-        <v>0.04554323570575036</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.224053468019875</v>
+        <v>0.275967370888381</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>4.711305520085688</v>
+      </c>
+      <c r="P15">
+        <v>5.90347064908525</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3387038759119037</v>
+        <v>0.2205900863529493</v>
       </c>
       <c r="D16">
-        <v>0.0003422981367942057</v>
+        <v>0.03005042671071578</v>
       </c>
       <c r="E16">
-        <v>0.08781217459323187</v>
+        <v>0.1647130572796982</v>
       </c>
       <c r="F16">
-        <v>5.309499572554358</v>
+        <v>2.795520724174708</v>
       </c>
       <c r="G16">
-        <v>0.0008018958981309695</v>
+        <v>2.97335043535179</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1763810084671746</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.04275147517575473</v>
       </c>
       <c r="J16">
-        <v>0.2695569379400951</v>
+        <v>1.55957973170689</v>
       </c>
       <c r="K16">
-        <v>10.74157474219055</v>
+        <v>2.012431332260704</v>
       </c>
       <c r="L16">
-        <v>0.04416009803341581</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.263664363945324</v>
+        <v>0.2586201728931599</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>4.426346766587045</v>
+      </c>
+      <c r="P16">
+        <v>5.573419377170922</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3264820303662361</v>
+        <v>0.2098363865453621</v>
       </c>
       <c r="D17">
-        <v>0.0003134524019583473</v>
+        <v>0.0318492026288375</v>
       </c>
       <c r="E17">
-        <v>0.08520144979550892</v>
+        <v>0.1465639410661268</v>
       </c>
       <c r="F17">
-        <v>5.147899219685087</v>
+        <v>2.764937845566863</v>
       </c>
       <c r="G17">
-        <v>0.0008075463299278256</v>
+        <v>2.949774157167411</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.136682119655859</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.039077539259468</v>
       </c>
       <c r="J17">
-        <v>0.2620668545338702</v>
+        <v>1.5521553970556</v>
       </c>
       <c r="K17">
-        <v>10.27801472675566</v>
+        <v>2.013781294405419</v>
       </c>
       <c r="L17">
-        <v>0.04333532297257392</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.288989006584089</v>
+        <v>0.2203556753667399</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>4.372687247119401</v>
+      </c>
+      <c r="P17">
+        <v>5.308897178540178</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3195591699226839</v>
+        <v>0.1997213607258033</v>
       </c>
       <c r="D18">
-        <v>0.0003006902015640911</v>
+        <v>0.03649622923303397</v>
       </c>
       <c r="E18">
-        <v>0.08372340052775584</v>
+        <v>0.1226567002729375</v>
       </c>
       <c r="F18">
-        <v>5.057050584743166</v>
+        <v>2.862506461136121</v>
       </c>
       <c r="G18">
-        <v>0.0008107965977585328</v>
+        <v>3.075233336005937</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08362725677647376</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.03810206445426356</v>
       </c>
       <c r="J18">
-        <v>0.2578526951822084</v>
+        <v>1.617079375653333</v>
       </c>
       <c r="K18">
-        <v>10.01495301321916</v>
+        <v>2.124515179720333</v>
       </c>
       <c r="L18">
-        <v>0.04286908889238106</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.303908924580384</v>
+        <v>0.1680079258458349</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>4.517438510611996</v>
+      </c>
+      <c r="P18">
+        <v>5.070575642746917</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3172326935624881</v>
+        <v>0.1932286444505067</v>
       </c>
       <c r="D19">
-        <v>0.0002969850181839817</v>
+        <v>0.04341542767925688</v>
       </c>
       <c r="E19">
-        <v>0.08322683005534515</v>
+        <v>0.1008491035225632</v>
       </c>
       <c r="F19">
-        <v>5.026634789293496</v>
+        <v>3.046399624350329</v>
       </c>
       <c r="G19">
-        <v>0.0008118973645295494</v>
+        <v>3.300678211699676</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03980305744477874</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.03971620076940763</v>
       </c>
       <c r="J19">
-        <v>0.2564412636454563</v>
+        <v>1.729928960375474</v>
       </c>
       <c r="K19">
-        <v>9.926466007579677</v>
+        <v>2.306885285525411</v>
       </c>
       <c r="L19">
-        <v>0.04271258023836211</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.309019322463456</v>
+        <v>0.1185352522477601</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>4.803853210776339</v>
+      </c>
+      <c r="P19">
+        <v>4.87919083235596</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.327771802667371</v>
+        <v>0.1954202692961289</v>
       </c>
       <c r="D20">
-        <v>0.0003161166345932998</v>
+        <v>0.0571611918438748</v>
       </c>
       <c r="E20">
-        <v>0.08547688371826467</v>
+        <v>0.08420710082466343</v>
       </c>
       <c r="F20">
-        <v>5.164880530269556</v>
+        <v>3.491983874628744</v>
       </c>
       <c r="G20">
-        <v>0.0008069448580044003</v>
+        <v>3.830047553192969</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02016659905605556</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.04857362729212511</v>
       </c>
       <c r="J20">
-        <v>0.2628542893439203</v>
+        <v>1.988670274423043</v>
       </c>
       <c r="K20">
-        <v>10.32698488041854</v>
+        <v>2.709656309746194</v>
       </c>
       <c r="L20">
-        <v>0.0434222655193004</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.28625604734404</v>
+        <v>0.07734189729498908</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>5.50411084907455</v>
+      </c>
+      <c r="P20">
+        <v>4.811859470960258</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3645269896829291</v>
+        <v>0.215432660787986</v>
       </c>
       <c r="D21">
-        <v>0.00042955535688316</v>
+        <v>0.06318589627321813</v>
       </c>
       <c r="E21">
-        <v>0.09333250342078969</v>
+        <v>0.09028801468905812</v>
       </c>
       <c r="F21">
-        <v>5.655784872048201</v>
+        <v>3.953098904564456</v>
       </c>
       <c r="G21">
-        <v>0.0007902899952657877</v>
+        <v>4.346923841663823</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02993335894068494</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.06606193838001584</v>
       </c>
       <c r="J21">
-        <v>0.2855815341779504</v>
+        <v>2.232761689844892</v>
       </c>
       <c r="K21">
-        <v>11.71777999011476</v>
+        <v>3.057050600217977</v>
       </c>
       <c r="L21">
-        <v>0.04590817010232584</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.214163478265874</v>
+        <v>0.08043073560034486</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>6.235511927600839</v>
+      </c>
+      <c r="P21">
+        <v>5.30940546584452</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.389721054295677</v>
+        <v>0.2289491998488167</v>
       </c>
       <c r="D22">
-        <v>0.0005488943111600086</v>
+        <v>0.06683573479211447</v>
       </c>
       <c r="E22">
-        <v>0.09872182486559211</v>
+        <v>0.09492301611056497</v>
       </c>
       <c r="F22">
-        <v>5.999594115049319</v>
+        <v>4.251894816107097</v>
       </c>
       <c r="G22">
-        <v>0.0007793480652698778</v>
+        <v>4.680908007753601</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.03713536239809612</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.07851074092904575</v>
       </c>
       <c r="J22">
-        <v>0.3014579360887097</v>
+        <v>2.390397521857437</v>
       </c>
       <c r="K22">
-        <v>12.6665386368137</v>
+        <v>3.280684666362731</v>
       </c>
       <c r="L22">
-        <v>0.04761838420467512</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.170716661684622</v>
+        <v>0.08386456198435255</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>6.697713537768664</v>
+      </c>
+      <c r="P22">
+        <v>5.642493579445386</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3761552239246271</v>
+        <v>0.2215974412876562</v>
       </c>
       <c r="D23">
-        <v>0.0004804459413114692</v>
+        <v>0.06523132330929116</v>
       </c>
       <c r="E23">
-        <v>0.09581963080121625</v>
+        <v>0.09246171226932898</v>
       </c>
       <c r="F23">
-        <v>5.813761721835931</v>
+        <v>4.100254525023786</v>
       </c>
       <c r="G23">
-        <v>0.0007851964304881331</v>
+        <v>4.512286673957476</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.03327847809232587</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.0716775388152664</v>
       </c>
       <c r="J23">
-        <v>0.2928806742816619</v>
+        <v>2.311023445367027</v>
       </c>
       <c r="K23">
-        <v>12.15608987775113</v>
+        <v>3.169671960808401</v>
       </c>
       <c r="L23">
-        <v>0.04669708455299926</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.19354091080821</v>
+        <v>0.0822208145475436</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>6.458632947477611</v>
+      </c>
+      <c r="P23">
+        <v>5.461387141549665</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3271883760636456</v>
+        <v>0.1948769559620374</v>
       </c>
       <c r="D24">
-        <v>0.000314900344301261</v>
+        <v>0.05860313270127904</v>
       </c>
       <c r="E24">
-        <v>0.08535228920694138</v>
+        <v>0.08331077115755647</v>
       </c>
       <c r="F24">
-        <v>5.157196915040259</v>
+        <v>3.521699208031663</v>
       </c>
       <c r="G24">
-        <v>0.0008072167773116869</v>
+        <v>3.867071517637868</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02038673594543017</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.04851359502576713</v>
       </c>
       <c r="J24">
-        <v>0.2624980054550576</v>
+        <v>2.007169101806483</v>
       </c>
       <c r="K24">
-        <v>10.30483482598504</v>
+        <v>2.741161214381805</v>
       </c>
       <c r="L24">
-        <v>0.04338293419512951</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.287490500903388</v>
+        <v>0.07569069147951168</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>5.542043299370931</v>
+      </c>
+      <c r="P24">
+        <v>4.782464442025969</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2783721917522115</v>
+        <v>0.1676226422645613</v>
       </c>
       <c r="D25">
-        <v>0.0002791960852630559</v>
+        <v>0.05146155736336766</v>
       </c>
       <c r="E25">
-        <v>0.07494596858423463</v>
+        <v>0.07373992949476982</v>
       </c>
       <c r="F25">
-        <v>4.527698233865237</v>
+        <v>2.913834481608603</v>
       </c>
       <c r="G25">
-        <v>0.000831002372591106</v>
+        <v>3.188362816121611</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.009813731371669181</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.02830418251965927</v>
       </c>
       <c r="J25">
-        <v>0.2332489793354426</v>
+        <v>1.688058199182393</v>
       </c>
       <c r="K25">
-        <v>8.441344157434855</v>
+        <v>2.289473772653992</v>
       </c>
       <c r="L25">
-        <v>0.04011506625487016</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.402174465867745</v>
+        <v>0.06859535674686512</v>
       </c>
       <c r="O25">
+        <v>4.555104538444098</v>
+      </c>
+      <c r="P25">
+        <v>4.052951964508111</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1482004030351902</v>
+        <v>0.1591928565944016</v>
       </c>
       <c r="D2">
-        <v>0.04698418370389135</v>
+        <v>0.02969329646449737</v>
       </c>
       <c r="E2">
-        <v>0.06686695927754815</v>
+        <v>0.06377329393020315</v>
       </c>
       <c r="F2">
-        <v>2.495580400853967</v>
+        <v>2.007956331624868</v>
       </c>
       <c r="G2">
-        <v>2.72270836135894</v>
+        <v>2.102260029885031</v>
       </c>
       <c r="H2">
-        <v>0.004407194756222532</v>
+        <v>0.002819827829341648</v>
       </c>
       <c r="I2">
-        <v>0.01637092321027822</v>
+        <v>0.0123311967564792</v>
       </c>
       <c r="J2">
-        <v>1.470158585577053</v>
+        <v>1.240317642622728</v>
       </c>
       <c r="K2">
-        <v>1.983372109685774</v>
+        <v>1.479206061899774</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.6357306632596789</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.4952963546951281</v>
       </c>
       <c r="N2">
-        <v>0.06373159770386749</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3.846140034735669</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.50989317629157</v>
+        <v>0.05611034741108334</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>3.379243870360852</v>
+      </c>
+      <c r="R2">
+        <v>3.719382127545856</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.135503958174013</v>
+        <v>0.1421537044899139</v>
       </c>
       <c r="D3">
-        <v>0.04344712010884422</v>
+        <v>0.02828567639106083</v>
       </c>
       <c r="E3">
-        <v>0.06220599561161322</v>
+        <v>0.05981251467069981</v>
       </c>
       <c r="F3">
-        <v>2.205541570487284</v>
+        <v>1.789848162235685</v>
       </c>
       <c r="G3">
-        <v>2.398205393002542</v>
+        <v>1.865121604237174</v>
       </c>
       <c r="H3">
-        <v>0.001867411702612065</v>
+        <v>0.001132018447965732</v>
       </c>
       <c r="I3">
-        <v>0.01006832925566181</v>
+        <v>0.0079188194005817</v>
       </c>
       <c r="J3">
-        <v>1.318211429017026</v>
+        <v>1.126573361822864</v>
       </c>
       <c r="K3">
-        <v>1.766994608320374</v>
+        <v>1.33460320278995</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.5977559980186484</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.4238435704777714</v>
       </c>
       <c r="N3">
-        <v>0.06008137943163838</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3.354381996416649</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.147127494245126</v>
+        <v>0.05496435371497732</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>2.957803825614505</v>
+      </c>
+      <c r="R3">
+        <v>3.324421808782347</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1278189322347956</v>
+        <v>0.1319056228056965</v>
       </c>
       <c r="D4">
-        <v>0.04124141343814713</v>
+        <v>0.02737787387927426</v>
       </c>
       <c r="E4">
-        <v>0.05933975118949242</v>
+        <v>0.0573612602143907</v>
       </c>
       <c r="F4">
-        <v>2.028921279271984</v>
+        <v>1.656378480867843</v>
       </c>
       <c r="G4">
-        <v>2.200371770951477</v>
+        <v>1.720126713850931</v>
       </c>
       <c r="H4">
-        <v>0.0008175100694105542</v>
+        <v>0.0004550814032986406</v>
       </c>
       <c r="I4">
-        <v>0.006914140671545166</v>
+        <v>0.005673750709484171</v>
       </c>
       <c r="J4">
-        <v>1.225696584172908</v>
+        <v>1.056554481420477</v>
       </c>
       <c r="K4">
-        <v>1.63483158860906</v>
+        <v>1.245674166635283</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.5736511726574562</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.3812370493839978</v>
       </c>
       <c r="N4">
-        <v>0.05778344019476123</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>3.051523688828922</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>2.924841309564215</v>
+        <v>0.05422064159663087</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>2.69749558499602</v>
+      </c>
+      <c r="R4">
+        <v>3.082491381139533</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1247292932406143</v>
+        <v>0.1279373148423346</v>
       </c>
       <c r="D5">
-        <v>0.04025098291896967</v>
+        <v>0.02694794529876177</v>
       </c>
       <c r="E5">
-        <v>0.0581636918386268</v>
+        <v>0.05635580125591755</v>
       </c>
       <c r="F5">
-        <v>1.955304278862485</v>
+        <v>1.600438075691656</v>
       </c>
       <c r="G5">
-        <v>2.11766041842148</v>
+        <v>1.659196278480863</v>
       </c>
       <c r="H5">
-        <v>0.0005050814503497758</v>
+        <v>0.000261549403707706</v>
       </c>
       <c r="I5">
-        <v>0.005837371647530176</v>
+        <v>0.004926810633474332</v>
       </c>
       <c r="J5">
-        <v>1.186977048970817</v>
+        <v>1.026962368358028</v>
       </c>
       <c r="K5">
-        <v>1.579063020766313</v>
+        <v>1.20774374263631</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.5629600236963341</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.3636109304396555</v>
       </c>
       <c r="N5">
-        <v>0.05678403938773968</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.926038475305148</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>2.835138880371574</v>
+        <v>0.05388466061848174</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>2.589440024908612</v>
+      </c>
+      <c r="R5">
+        <v>2.98478146096528</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1242460463208488</v>
+        <v>0.1274808459355796</v>
       </c>
       <c r="D6">
-        <v>0.039985085956463</v>
+        <v>0.02681609638742799</v>
       </c>
       <c r="E6">
-        <v>0.05796230856692386</v>
+        <v>0.05618785039640972</v>
       </c>
       <c r="F6">
-        <v>1.940714088596835</v>
+        <v>1.589160836171104</v>
       </c>
       <c r="G6">
-        <v>2.101032289945493</v>
+        <v>1.646695361762738</v>
       </c>
       <c r="H6">
-        <v>0.0004571778197468568</v>
+        <v>0.0002325970847609771</v>
       </c>
       <c r="I6">
-        <v>0.005728858569823636</v>
+        <v>0.004891441455463941</v>
       </c>
       <c r="J6">
-        <v>1.179110058917985</v>
+        <v>1.020818611730647</v>
       </c>
       <c r="K6">
-        <v>1.567311412878595</v>
+        <v>1.19944135439782</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.5603581757062628</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.3600067110413292</v>
       </c>
       <c r="N6">
-        <v>0.05655858544559145</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.902963171509498</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2.821200795407151</v>
+        <v>0.05380099433382046</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>2.569533458704001</v>
+      </c>
+      <c r="R6">
+        <v>2.969474283456947</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1278544238097741</v>
+        <v>0.1321796716642964</v>
       </c>
       <c r="D7">
-        <v>0.04095131545323838</v>
+        <v>0.02710624816873874</v>
       </c>
       <c r="E7">
-        <v>0.05930793499581899</v>
+        <v>0.05729946455313062</v>
       </c>
       <c r="F7">
-        <v>2.021389625082961</v>
+        <v>1.646795971572274</v>
       </c>
       <c r="G7">
-        <v>2.191272011412167</v>
+        <v>1.718688906590216</v>
       </c>
       <c r="H7">
-        <v>0.0008020038998222123</v>
+        <v>0.0004425849942200077</v>
       </c>
       <c r="I7">
-        <v>0.007043729467659077</v>
+        <v>0.005854462833391416</v>
       </c>
       <c r="J7">
-        <v>1.221206384975176</v>
+        <v>1.040271839654594</v>
       </c>
       <c r="K7">
-        <v>1.627225975484563</v>
+        <v>1.237297491300765</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.5703418818963897</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.3782277560431169</v>
       </c>
       <c r="N7">
-        <v>0.05760941063915226</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>3.043733900996159</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>2.92624044818416</v>
+        <v>0.05412490141887538</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>2.68822206615576</v>
+      </c>
+      <c r="R7">
+        <v>3.084842635322929</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.143894888404013</v>
+        <v>0.153266042114943</v>
       </c>
       <c r="D8">
-        <v>0.04540052844016174</v>
+        <v>0.02866594507620945</v>
       </c>
       <c r="E8">
-        <v>0.06523807190314201</v>
+        <v>0.06225633252716278</v>
       </c>
       <c r="F8">
-        <v>2.386448401067355</v>
+        <v>1.914089793824502</v>
       </c>
       <c r="G8">
-        <v>2.599755685585734</v>
+        <v>2.031481074733307</v>
       </c>
       <c r="H8">
-        <v>0.00339057643935492</v>
+        <v>0.002120841593299172</v>
       </c>
       <c r="I8">
-        <v>0.01417578068374414</v>
+        <v>0.01087427970381505</v>
       </c>
       <c r="J8">
-        <v>1.412262000804532</v>
+        <v>1.155052310398418</v>
       </c>
       <c r="K8">
-        <v>1.899394962245793</v>
+        <v>1.414104479938331</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.6168665548343029</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.4647973106722105</v>
       </c>
       <c r="N8">
-        <v>0.06227061520094246</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>3.668568408818899</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>3.38821577822722</v>
+        <v>0.05557647137501931</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>3.218761361175879</v>
+      </c>
+      <c r="R8">
+        <v>3.59037923969791</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1765006568092709</v>
+        <v>0.196490888383039</v>
       </c>
       <c r="D9">
-        <v>0.05438146078555661</v>
+        <v>0.03203538441521303</v>
       </c>
       <c r="E9">
-        <v>0.0769670215430498</v>
+        <v>0.07205166949047559</v>
       </c>
       <c r="F9">
-        <v>3.129007273142292</v>
+        <v>2.465600201976002</v>
       </c>
       <c r="G9">
-        <v>3.430001398018675</v>
+        <v>2.642125272694017</v>
       </c>
       <c r="H9">
-        <v>0.01305650582299378</v>
+        <v>0.008616358765173471</v>
       </c>
       <c r="I9">
-        <v>0.03442208268770219</v>
+        <v>0.02460104923832596</v>
       </c>
       <c r="J9">
-        <v>1.801972252219002</v>
+        <v>1.430271909893946</v>
       </c>
       <c r="K9">
-        <v>2.45324382644452</v>
+        <v>1.779179301762724</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.7093049013711266</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.6519758940203815</v>
       </c>
       <c r="N9">
-        <v>0.07128739758735136</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>4.898858186060664</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>4.293525616710866</v>
+        <v>0.05831351583923272</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>4.265935015655288</v>
+      </c>
+      <c r="R9">
+        <v>4.578006024389424</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2019512009984581</v>
+        <v>0.230434489084459</v>
       </c>
       <c r="D10">
-        <v>0.05941492415512784</v>
+        <v>0.03301830179017884</v>
       </c>
       <c r="E10">
-        <v>0.08683645171180565</v>
+        <v>0.08041589898500412</v>
       </c>
       <c r="F10">
-        <v>3.653526613644516</v>
+        <v>2.830268724923343</v>
       </c>
       <c r="G10">
-        <v>4.011641109695091</v>
+        <v>3.102413557222661</v>
       </c>
       <c r="H10">
-        <v>0.02331715512754906</v>
+        <v>0.01549586759526944</v>
       </c>
       <c r="I10">
-        <v>0.05384424456484638</v>
+        <v>0.03743255768267684</v>
       </c>
       <c r="J10">
-        <v>2.074531706792698</v>
+        <v>1.544229048040194</v>
       </c>
       <c r="K10">
-        <v>2.833840304075181</v>
+        <v>2.010319022090073</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.7599676258303134</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.7817540634882647</v>
       </c>
       <c r="N10">
-        <v>0.08009943385982154</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>5.749138344329339</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>4.984131869869941</v>
+        <v>0.06090880296614642</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>4.969949295839541</v>
+      </c>
+      <c r="R10">
+        <v>5.335549835387837</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2165413914393213</v>
+        <v>0.2582934026428774</v>
       </c>
       <c r="D11">
-        <v>0.05053880877445494</v>
+        <v>0.02763794230510364</v>
       </c>
       <c r="E11">
-        <v>0.105985458514791</v>
+        <v>0.1009081050454537</v>
       </c>
       <c r="F11">
-        <v>3.611478298323021</v>
+        <v>2.752457458006518</v>
       </c>
       <c r="G11">
-        <v>3.933689409338939</v>
+        <v>3.117092901295365</v>
       </c>
       <c r="H11">
-        <v>0.04297797250212554</v>
+        <v>0.03447931087020351</v>
       </c>
       <c r="I11">
-        <v>0.05966309400955971</v>
+        <v>0.04135035368421569</v>
       </c>
       <c r="J11">
-        <v>2.029089349454324</v>
+        <v>1.35629770075974</v>
       </c>
       <c r="K11">
-        <v>2.732374250991299</v>
+        <v>1.89896242260275</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.7055148128130071</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.754955246981126</v>
       </c>
       <c r="N11">
-        <v>0.117368174238436</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>5.702374515942012</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>5.489731272587221</v>
+        <v>0.08126060655139611</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>4.899210929452835</v>
+      </c>
+      <c r="R11">
+        <v>5.873476379007286</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2255752153166455</v>
+        <v>0.2758408372640275</v>
       </c>
       <c r="D12">
-        <v>0.0432337831721803</v>
+        <v>0.02434888897915144</v>
       </c>
       <c r="E12">
-        <v>0.1274814655836174</v>
+        <v>0.1235488251928274</v>
       </c>
       <c r="F12">
-        <v>3.474000512344759</v>
+        <v>2.630628236864396</v>
       </c>
       <c r="G12">
-        <v>3.757117237009169</v>
+        <v>3.018426069921816</v>
       </c>
       <c r="H12">
-        <v>0.08093050043824235</v>
+        <v>0.0725634696498858</v>
       </c>
       <c r="I12">
-        <v>0.06012735107891576</v>
+        <v>0.04167106481244964</v>
       </c>
       <c r="J12">
-        <v>1.938878210367108</v>
+        <v>1.228029246583844</v>
       </c>
       <c r="K12">
-        <v>2.578178404704786</v>
+        <v>1.775407105638266</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.656547151229887</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.7116530325760948</v>
       </c>
       <c r="N12">
-        <v>0.1643910727570699</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>5.491533031740602</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>5.774411918036094</v>
+        <v>0.1153834398176201</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>4.70804067334501</v>
+      </c>
+      <c r="R12">
+        <v>6.166607163529704</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.230782453141984</v>
+        <v>0.2881374322164874</v>
       </c>
       <c r="D13">
-        <v>0.03634207431493408</v>
+        <v>0.02211384327792043</v>
       </c>
       <c r="E13">
-        <v>0.1516503609226341</v>
+        <v>0.1493838042267868</v>
       </c>
       <c r="F13">
-        <v>3.245192867837829</v>
+        <v>2.466918438999215</v>
       </c>
       <c r="G13">
-        <v>3.482587500005451</v>
+        <v>2.802291336641503</v>
       </c>
       <c r="H13">
-        <v>0.1344038150493532</v>
+        <v>0.1268526037571291</v>
       </c>
       <c r="I13">
-        <v>0.05650153898521637</v>
+        <v>0.03947287021299495</v>
       </c>
       <c r="J13">
-        <v>1.803067499647085</v>
+        <v>1.153600473889696</v>
       </c>
       <c r="K13">
-        <v>2.364570895272038</v>
+        <v>1.631887302355722</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.607006367743125</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.6523518378731552</v>
       </c>
       <c r="N13">
-        <v>0.2206361008064874</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>5.134915796092798</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>5.906566060613898</v>
+        <v>0.1619147234847489</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>4.412126850331447</v>
+      </c>
+      <c r="R13">
+        <v>6.285171273750848</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2331257137844247</v>
+        <v>0.2949136022928514</v>
       </c>
       <c r="D14">
-        <v>0.03181380713207105</v>
+        <v>0.02095587752968209</v>
       </c>
       <c r="E14">
-        <v>0.170531214632792</v>
+        <v>0.169809816806552</v>
       </c>
       <c r="F14">
-        <v>3.043806912795475</v>
+        <v>2.331810858162342</v>
       </c>
       <c r="G14">
-        <v>3.246367479443848</v>
+        <v>2.599848463469669</v>
       </c>
       <c r="H14">
-        <v>0.1815876071982387</v>
+        <v>0.174860386668314</v>
       </c>
       <c r="I14">
-        <v>0.05232351963326565</v>
+        <v>0.03694326752765509</v>
       </c>
       <c r="J14">
-        <v>1.687434668852831</v>
+        <v>1.121209405876073</v>
       </c>
       <c r="K14">
-        <v>2.188374277131757</v>
+        <v>1.521067402035101</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.5712664415917814</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.6034445592459292</v>
       </c>
       <c r="N14">
-        <v>0.2656881903662907</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>4.820253856141761</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>5.930500144029565</v>
+        <v>0.2020106681895228</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>4.157082597856103</v>
+      </c>
+      <c r="R14">
+        <v>6.289556530272591</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2327893559120326</v>
+        <v>0.2956070044584465</v>
       </c>
       <c r="D15">
-        <v>0.03064862093164322</v>
+        <v>0.02071729650429699</v>
       </c>
       <c r="E15">
-        <v>0.1746897213248744</v>
+        <v>0.1745523447300776</v>
       </c>
       <c r="F15">
-        <v>2.973585106807263</v>
+        <v>2.287363848884581</v>
       </c>
       <c r="G15">
-        <v>3.165754445186025</v>
+        <v>2.525652918050298</v>
       </c>
       <c r="H15">
-        <v>0.1931638583679245</v>
+        <v>0.1867855461073589</v>
       </c>
       <c r="I15">
-        <v>0.05052668123214499</v>
+        <v>0.03588770325320478</v>
       </c>
       <c r="J15">
-        <v>1.648483805105201</v>
+        <v>1.120266692493146</v>
       </c>
       <c r="K15">
-        <v>2.13075236248018</v>
+        <v>1.48724297221662</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.5613326874548648</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.5872899001604566</v>
       </c>
       <c r="N15">
-        <v>0.275967370888381</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>4.711305520085688</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>5.90347064908525</v>
+        <v>0.2118713947959137</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>4.070645317100485</v>
+      </c>
+      <c r="R15">
+        <v>6.25333690447485</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2205900863529493</v>
+        <v>0.2811779914039647</v>
       </c>
       <c r="D16">
-        <v>0.03005042671071578</v>
+        <v>0.02090248539325179</v>
       </c>
       <c r="E16">
-        <v>0.1647130572796982</v>
+        <v>0.1661854908914684</v>
       </c>
       <c r="F16">
-        <v>2.795520724174708</v>
+        <v>2.191473497322306</v>
       </c>
       <c r="G16">
-        <v>2.97335043535179</v>
+        <v>2.321223163600251</v>
       </c>
       <c r="H16">
-        <v>0.1763810084671746</v>
+        <v>0.1713973662611892</v>
       </c>
       <c r="I16">
-        <v>0.04275147517575473</v>
+        <v>0.03097870077608711</v>
       </c>
       <c r="J16">
-        <v>1.55957973170689</v>
+        <v>1.181715948681301</v>
       </c>
       <c r="K16">
-        <v>2.012431332260704</v>
+        <v>1.435687500287926</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.5546194545685381</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.5521943255393253</v>
       </c>
       <c r="N16">
-        <v>0.2586201728931599</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>4.426346766587045</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>5.573419377170922</v>
+        <v>0.2009058288786889</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>3.855001713751548</v>
+      </c>
+      <c r="R16">
+        <v>5.884985759439303</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2098363865453621</v>
+        <v>0.2657928451851603</v>
       </c>
       <c r="D17">
-        <v>0.0318492026288375</v>
+        <v>0.02168783212439607</v>
       </c>
       <c r="E17">
-        <v>0.1465639410661268</v>
+        <v>0.1480350961278099</v>
       </c>
       <c r="F17">
-        <v>2.764937845566863</v>
+        <v>2.184863784638651</v>
       </c>
       <c r="G17">
-        <v>2.949774157167411</v>
+        <v>2.278901008450788</v>
       </c>
       <c r="H17">
-        <v>0.136682119655859</v>
+        <v>0.1323054673525803</v>
       </c>
       <c r="I17">
-        <v>0.039077539259468</v>
+        <v>0.02858129964231271</v>
       </c>
       <c r="J17">
-        <v>1.5521553970556</v>
+        <v>1.232139254797261</v>
       </c>
       <c r="K17">
-        <v>2.013781294405419</v>
+        <v>1.45155243695595</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.5675923476924751</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.5495975927506507</v>
       </c>
       <c r="N17">
-        <v>0.2203556753667399</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>4.372687247119401</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>5.308897178540178</v>
+        <v>0.1696276364975375</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>3.820211573851878</v>
+      </c>
+      <c r="R17">
+        <v>5.603940043837781</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1997213607258033</v>
+        <v>0.248468071217431</v>
       </c>
       <c r="D18">
-        <v>0.03649622923303397</v>
+        <v>0.02358182493608929</v>
       </c>
       <c r="E18">
-        <v>0.1226567002729375</v>
+        <v>0.1229379771315742</v>
       </c>
       <c r="F18">
-        <v>2.862506461136121</v>
+        <v>2.265964962478364</v>
       </c>
       <c r="G18">
-        <v>3.075233336005937</v>
+        <v>2.362640792077201</v>
       </c>
       <c r="H18">
-        <v>0.08362725677647376</v>
+        <v>0.07930814350545745</v>
       </c>
       <c r="I18">
-        <v>0.03810206445426356</v>
+        <v>0.02776047197914</v>
       </c>
       <c r="J18">
-        <v>1.617079375653333</v>
+        <v>1.305434014753303</v>
       </c>
       <c r="K18">
-        <v>2.124515179720333</v>
+        <v>1.537432384117551</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.603040836311358</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.5781708452835517</v>
       </c>
       <c r="N18">
-        <v>0.1680079258458349</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>4.517438510611996</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>5.070575642746917</v>
+        <v>0.1259356860170726</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>3.947646046550744</v>
+      </c>
+      <c r="R18">
+        <v>5.362554976384729</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1932286444505067</v>
+        <v>0.2338305320634362</v>
       </c>
       <c r="D19">
-        <v>0.04341542767925688</v>
+        <v>0.02660122409636578</v>
       </c>
       <c r="E19">
-        <v>0.1008491035225632</v>
+        <v>0.09910637810926914</v>
       </c>
       <c r="F19">
-        <v>3.046399624350329</v>
+        <v>2.406318186153626</v>
       </c>
       <c r="G19">
-        <v>3.300678211699676</v>
+        <v>2.527271734674059</v>
       </c>
       <c r="H19">
-        <v>0.03980305744477874</v>
+        <v>0.03505876636108241</v>
       </c>
       <c r="I19">
-        <v>0.03971620076940763</v>
+        <v>0.028786591427445</v>
       </c>
       <c r="J19">
-        <v>1.729928960375474</v>
+        <v>1.39697625929918</v>
       </c>
       <c r="K19">
-        <v>2.306885285525411</v>
+        <v>1.668481853104311</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.6522315836608641</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.6277720855872104</v>
       </c>
       <c r="N19">
-        <v>0.1185352522477601</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>4.803853210776339</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>4.87919083235596</v>
+        <v>0.08670295709684694</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>4.191716701631051</v>
+      </c>
+      <c r="R19">
+        <v>5.177163951201862</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1954202692961289</v>
+        <v>0.2242101251799085</v>
       </c>
       <c r="D20">
-        <v>0.0571611918438748</v>
+        <v>0.03262500093587661</v>
       </c>
       <c r="E20">
-        <v>0.08420710082466343</v>
+        <v>0.07843873274769919</v>
       </c>
       <c r="F20">
-        <v>3.491983874628744</v>
+        <v>2.728098467335087</v>
       </c>
       <c r="G20">
-        <v>3.830047553192969</v>
+        <v>2.936553555187686</v>
       </c>
       <c r="H20">
-        <v>0.02016659905605556</v>
+        <v>0.01343009960976538</v>
       </c>
       <c r="I20">
-        <v>0.04857362729212511</v>
+        <v>0.03443866885054803</v>
       </c>
       <c r="J20">
-        <v>1.988670274423043</v>
+        <v>1.548195798281228</v>
       </c>
       <c r="K20">
-        <v>2.709656309746194</v>
+        <v>1.940042317433495</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.7434002312800629</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.7434601535691883</v>
       </c>
       <c r="N20">
-        <v>0.07734189729498908</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>5.50411084907455</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>4.811859470960258</v>
+        <v>0.06009135010789901</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>4.776128495122549</v>
+      </c>
+      <c r="R20">
+        <v>5.140808277453402</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.215432660787986</v>
+        <v>0.2439800439567819</v>
       </c>
       <c r="D21">
-        <v>0.06318589627321813</v>
+        <v>0.0325725505805714</v>
       </c>
       <c r="E21">
-        <v>0.09028801468905812</v>
+        <v>0.08192928846181147</v>
       </c>
       <c r="F21">
-        <v>3.953098904564456</v>
+        <v>2.984298823062261</v>
       </c>
       <c r="G21">
-        <v>4.346923841663823</v>
+        <v>3.460700851523143</v>
       </c>
       <c r="H21">
-        <v>0.02993335894068494</v>
+        <v>0.01962480254526078</v>
       </c>
       <c r="I21">
-        <v>0.06606193838001584</v>
+        <v>0.04524723971860922</v>
       </c>
       <c r="J21">
-        <v>2.232761689844892</v>
+        <v>1.430035187960385</v>
       </c>
       <c r="K21">
-        <v>3.057050600217977</v>
+        <v>2.108690491688236</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.7782837022090945</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.8415150211099274</v>
       </c>
       <c r="N21">
-        <v>0.08043073560034486</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>6.235511927600839</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>5.30940546584452</v>
+        <v>0.0606486461491258</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>5.331559231536346</v>
+      </c>
+      <c r="R21">
+        <v>5.715428131328736</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2289491998488167</v>
+        <v>0.2571733408260997</v>
       </c>
       <c r="D22">
-        <v>0.06683573479211447</v>
+        <v>0.03225021869311462</v>
       </c>
       <c r="E22">
-        <v>0.09492301611056497</v>
+        <v>0.08496039642447073</v>
       </c>
       <c r="F22">
-        <v>4.251894816107097</v>
+        <v>3.142627948647345</v>
       </c>
       <c r="G22">
-        <v>4.680908007753601</v>
+        <v>3.814971945528214</v>
       </c>
       <c r="H22">
-        <v>0.03713536239809612</v>
+        <v>0.024148845097274</v>
       </c>
       <c r="I22">
-        <v>0.07851074092904575</v>
+        <v>0.05266583664647584</v>
       </c>
       <c r="J22">
-        <v>2.390397521857437</v>
+        <v>1.339809766090809</v>
       </c>
       <c r="K22">
-        <v>3.280684666362731</v>
+        <v>2.211432691208799</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.7979044163394349</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.9037311961362491</v>
       </c>
       <c r="N22">
-        <v>0.08386456198435255</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>6.697713537768664</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>5.642493579445386</v>
+        <v>0.06150187722632072</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>5.674951950703985</v>
+      </c>
+      <c r="R22">
+        <v>6.100981664286849</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2215974412876562</v>
+        <v>0.2499673982812851</v>
       </c>
       <c r="D23">
-        <v>0.06523132330929116</v>
+        <v>0.03283376895112866</v>
       </c>
       <c r="E23">
-        <v>0.09246171226932898</v>
+        <v>0.08343843537355866</v>
       </c>
       <c r="F23">
-        <v>4.100254525023786</v>
+        <v>3.07379870532219</v>
       </c>
       <c r="G23">
-        <v>4.512286673957476</v>
+        <v>3.61632833102604</v>
       </c>
       <c r="H23">
-        <v>0.03327847809232587</v>
+        <v>0.0217702697522022</v>
       </c>
       <c r="I23">
-        <v>0.0716775388152664</v>
+        <v>0.04851922894621197</v>
       </c>
       <c r="J23">
-        <v>2.311023445367027</v>
+        <v>1.421060258515695</v>
       </c>
       <c r="K23">
-        <v>3.169671960808401</v>
+        <v>2.169579536058137</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.7920550385027241</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.8756745131054799</v>
       </c>
       <c r="N23">
-        <v>0.0822208145475436</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>6.458632947477611</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>5.461387141549665</v>
+        <v>0.06113041788963702</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>5.505272753811738</v>
+      </c>
+      <c r="R23">
+        <v>5.888622494187075</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1948769559620374</v>
+        <v>0.2216018299942846</v>
       </c>
       <c r="D24">
-        <v>0.05860313270127904</v>
+        <v>0.03338188696493205</v>
       </c>
       <c r="E24">
-        <v>0.08331077115755647</v>
+        <v>0.07726227636698191</v>
       </c>
       <c r="F24">
-        <v>3.521699208031663</v>
+        <v>2.751841416804524</v>
       </c>
       <c r="G24">
-        <v>3.867071517637868</v>
+        <v>2.963859427477615</v>
       </c>
       <c r="H24">
-        <v>0.02038673594543017</v>
+        <v>0.01355820766543714</v>
       </c>
       <c r="I24">
-        <v>0.04851359502576713</v>
+        <v>0.03415371534968603</v>
       </c>
       <c r="J24">
-        <v>2.007169101806483</v>
+        <v>1.564932969675795</v>
       </c>
       <c r="K24">
-        <v>2.741161214381805</v>
+        <v>1.963844765388544</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.7524306639663365</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.7523859368859576</v>
       </c>
       <c r="N24">
-        <v>0.07569069147951168</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>5.542043299370931</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>4.782464442025969</v>
+        <v>0.05956249355193144</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>4.808737045216958</v>
+      </c>
+      <c r="R24">
+        <v>5.111577367975144</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1676226422645613</v>
+        <v>0.185919338560069</v>
       </c>
       <c r="D25">
-        <v>0.05146155736336766</v>
+        <v>0.03102136581309978</v>
       </c>
       <c r="E25">
-        <v>0.07373992949476982</v>
+        <v>0.06946876969170468</v>
       </c>
       <c r="F25">
-        <v>2.913834481608603</v>
+        <v>2.310441497325883</v>
       </c>
       <c r="G25">
-        <v>3.188362816121611</v>
+        <v>2.455113000347581</v>
       </c>
       <c r="H25">
-        <v>0.009813731371669181</v>
+        <v>0.006443219664399036</v>
       </c>
       <c r="I25">
-        <v>0.02830418251965927</v>
+        <v>0.02071425378826497</v>
       </c>
       <c r="J25">
-        <v>1.688058199182393</v>
+        <v>1.367715141943251</v>
       </c>
       <c r="K25">
-        <v>2.289473772653992</v>
+        <v>1.673733613168622</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.6824739642144948</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.5975760072000611</v>
       </c>
       <c r="N25">
-        <v>0.06859535674686512</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>4.555104538444098</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>4.052951964508111</v>
+        <v>0.05750435372201324</v>
       </c>
       <c r="Q25">
+        <v>3.977686366388753</v>
+      </c>
+      <c r="R25">
+        <v>4.313125364521738</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
